--- a/src/output/3-filter/manual/all-nf.xlsx
+++ b/src/output/3-filter/manual/all-nf.xlsx
@@ -482,8 +482,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2020</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -497,7 +499,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>privacy,nothing,system security,operate system security</t>
+          <t>privacy,operate system security,nothing</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,8 +507,10 @@
           <t>SpringSim '20: Proceedings of the 2020 Spring Simulation Conference</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -525,8 +529,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2014</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -540,7 +546,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>digital cash,apply compute,electronic commerce</t>
+          <t>digital cash,electronic commerce,apply compute</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -548,8 +554,10 @@
           <t>CCS '14: Proceedings of the 2014 ACM SIGSAC Conference on Computer and Communications Security</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>3</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -568,8 +576,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2017</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -583,7 +593,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>information system application,extra-functional property,information system,software,it engineer,privacy,nothing,compute platform,property,software performance,system security,software organization</t>
+          <t>extra-functional property,compute platform,software performance,privacy,it engineer,information system application,software organization,property,nothing,information system</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -591,8 +601,10 @@
           <t>SIGMOD '17: Proceedings of the 2017 ACM International Conference on Management of Data</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>168</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -611,8 +623,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>2018</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -626,7 +640,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>software,application security,privacy,nothing,software security</t>
+          <t>privacy,nothing</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -634,8 +648,10 @@
           <t>CASCON '18: Proceedings of the 28th Annual International Conference on Computer Science and Software Engineering</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>2</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -654,8 +670,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>2019</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -677,8 +695,10 @@
           <t>ICSE '19: Proceedings of the 41st International Conference on Software Engineering: Companion Proceedings</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>2</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -697,8 +717,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>2018</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -712,7 +734,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>software,application security,privacy,nothing,system security,software security</t>
+          <t>privacy,nothing</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -720,8 +742,10 @@
           <t>iiWAS2018: Proceedings of the 20th International Conference on Information Integration and Web-based Applications &amp; Services</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>10</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -740,8 +764,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>2016</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -755,7 +781,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>network simulation,network performance evaluation,nothing,privacy,system security,network</t>
+          <t>network simulation,privacy,network,network performance evaluation,nothing</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -763,8 +789,10 @@
           <t>CCS '16: Proceedings of the 2016 ACM SIGSAC Conference on Computer and Communications Security</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>294</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -783,8 +811,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>2020</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -798,7 +828,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>storage security,database,privacy,nothing,system security</t>
+          <t>privacy,database,storage security,nothing</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -806,8 +836,10 @@
           <t>CryBlock '20: Proceedings of the 3rd Workshop on Cryptocurrencies and Blockchains for Distributed Systems</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -826,8 +858,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>2020</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -841,7 +875,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>malware mitigation,information system,software,application security,world,privacy,wide,web,nothing,web application security,intrusion/anomaly detection,web mine</t>
+          <t>wide,privacy,web mine,web,malware mitigation,web application security,nothing,intrusion/anomaly detection,world,information system</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -849,8 +883,10 @@
           <t>SIGMETRICS '20: Abstracts of the 2020 SIGMETRICS/Performance Joint International Conference on Measurement and Modeling of Computer Systems</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>1</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -869,8 +905,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>2020</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -884,7 +922,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>privacy,nothing,system security</t>
+          <t>privacy,nothing</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -892,8 +930,10 @@
           <t>CryBlock '20: Proceedings of the 3rd Workshop on Cryptocurrencies and Blockchains for Distributed Systems</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -912,8 +952,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>2018</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -927,7 +969,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>privacy,nothing,system security</t>
+          <t>privacy,nothing</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -935,8 +977,10 @@
           <t>SoICT 2018: Proceedings of the Ninth International Symposium on Information and Communication Technology</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>2</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -955,8 +999,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>2015</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -970,7 +1016,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>secure online transaction,technology policy,electronic fund transfer,software,application security,professional topic,electronic commerce,domain-specific security and privacy architecture,privacy,apply compute,online bank,nothing,compute,privacy policy,human and societal aspect of security and privacy,social</t>
+          <t>social,apply compute,privacy,online bank,professional topic,compute,secure online transaction,nothing,privacy policy,electronic fund transfer,technology policy,domain-specific security and privacy architecture,electronic commerce</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -978,8 +1024,10 @@
           <t>ACM Transactions on Information and System Security</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>69</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -998,8 +1046,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>2020</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1013,7 +1063,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>apply compute,enterprise compute</t>
+          <t>enterprise compute,apply compute</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1021,8 +1071,10 @@
           <t>International Journal of Information Management: The Journal for Information Professionals</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1041,8 +1093,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>2019</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1056,7 +1110,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>privacy,nothing,security service,multi-factor authentication,authentication</t>
+          <t>privacy,authentication,security service,nothing,multi-factor authentication</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1064,8 +1118,10 @@
           <t>ICCTA 2019: Proceedings of the 2019 5th International Conference on Computer and Technology Applications</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>1</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1084,8 +1140,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>2017</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1099,7 +1157,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>nothing,program language usability,program</t>
+          <t>program,program language usability,nothing</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1107,8 +1165,10 @@
           <t>ICSE-C '17: Proceedings of the 39th International Conference on Software Engineering Companion</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>6</v>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1127,8 +1187,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>2020</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1142,7 +1204,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>software library,it engineer,software,application security,tool,privacy,nothing,repository,software notation,software security</t>
+          <t>tool,privacy,software library,it engineer,repository,nothing,software notation</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1150,8 +1212,10 @@
           <t>EASE '20: Proceedings of the Evaluation and Assessment in Software Engineering</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>1</v>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1170,8 +1234,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>2020</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1185,7 +1251,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>distributed ledger,nothing,data dissemination,simulation</t>
+          <t>data dissemination,simulation,nothing</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1193,8 +1259,10 @@
           <t>CryBlock '20: Proceedings of the 3rd Workshop on Cryptocurrencies and Blockchains for Distributed Systems</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1213,8 +1281,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>2014</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1228,7 +1298,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>technology policy,professional topic,privacy,nothing,privacy policy,compute,human and societal aspect of security and privacy,social</t>
+          <t>privacy,professional topic,compute,privacy policy,nothing,technology policy,social</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1236,8 +1306,10 @@
           <t>WPES '14: Proceedings of the 13th Workshop on Privacy in the Electronic Society</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>44</v>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1256,8 +1328,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>2020</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1271,7 +1345,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>software test,software verification,it engineer,software,application security,software defect analysis,privacy,nothing,software creation,validation,management,software security,debug</t>
+          <t>software verification,software defect analysis,privacy,it engineer,management,software test,validation,debug,nothing,software creation</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1279,8 +1353,10 @@
           <t>ICCSP 2020: Proceedings of the 2020 4th International Conference on Cryptography, Security and Privacy</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1299,8 +1375,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>2020</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1314,7 +1392,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>design,analysis of algorithm,theory of computation</t>
+          <t>theory of computation,analysis of algorithm,design</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1322,8 +1400,10 @@
           <t>ICBCT'20: Proceedings of the 2020 The 2nd International Conference on Blockchain Technology</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1342,8 +1422,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>2020</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1357,7 +1439,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>network architecture,software,application security,privacy,nothing,security protocol,network</t>
+          <t>security protocol,privacy,network,nothing,network architecture</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1365,8 +1447,10 @@
           <t>CryBlock '20: Proceedings of the 3rd Workshop on Cryptocurrencies and Blockchains for Distributed Systems</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1385,8 +1469,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>2020</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1400,7 +1486,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>software,application security,domain-specific security and privacy architecture,privacy,nothing,system security</t>
+          <t>privacy,domain-specific security and privacy architecture,nothing</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1408,8 +1494,10 @@
           <t>ASIA CCS '20: Proceedings of the 15th ACM Asia Conference on Computer and Communications Security</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1428,8 +1516,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>2018</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1443,7 +1533,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>privacy,nothing,system security</t>
+          <t>privacy,nothing</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1451,8 +1541,10 @@
           <t>CCS '18: Proceedings of the 2018 ACM SIGSAC Conference on Computer and Communications Security</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>16</v>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1471,8 +1563,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>2019</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1486,7 +1580,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>computer system organization,denial-of-service attack,architecture,peer-to-peer architecture,network property,nothing,distribute architecture,network</t>
+          <t>distribute architecture,network,denial-of-service attack,nothing,peer-to-peer architecture,computer system organization</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1494,8 +1588,10 @@
           <t>ICBTA 2019: Proceedings of the 2019 2nd International Conference on Blockchain Technology and Applications</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1514,8 +1610,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>2016</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1529,7 +1627,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>mathematical model,double-spend attack,time-based model,attacker advantage,bitcoin</t>
+          <t>time-based model,attacker advantage,mathematical model,bitcoin,double-spend attack</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1537,8 +1635,10 @@
           <t>Electronic Notes in Theoretical Computer Science (ENTCS)</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>3</v>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1557,8 +1657,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>2018</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1572,7 +1674,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>message authentication code,hash function,system security,cryptography,privacy,nothing,symmetric cryptography</t>
+          <t>privacy,message authentication code,symmetric cryptography,nothing,cryptography</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1580,8 +1682,10 @@
           <t>BCC '18: Proceedings of the 2nd ACM Workshop on Blockchains, Cryptocurrencies, and Contracts</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>3</v>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1600,8 +1704,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>2020</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1615,7 +1721,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>privacy,nothing,system security,operate system security</t>
+          <t>privacy,operate system security,nothing</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1623,8 +1729,10 @@
           <t>SAC '20: Proceedings of the 35th Annual ACM Symposium on Applied Computing</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>0</v>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1643,8 +1751,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>2019</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1658,7 +1768,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">cooperative defense,nothing,distribute denial-of-service </t>
+          <t>distribute denial-of-service ,cooperative defense,nothing</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1666,8 +1776,10 @@
           <t>SIGCOMM Posters and Demos '19: Proceedings of the ACM SIGCOMM 2019 Conference Posters and Demos</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>2</v>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1686,8 +1798,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>2019</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1701,7 +1815,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>probability,mathematics of compute,cryptography,privacy,nothing,statistic,network protocol,network</t>
+          <t>privacy,network,statistic,network protocol,mathematics of compute,nothing,probability,cryptography</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1709,8 +1823,10 @@
           <t>ICBCT 2019: Proceedings of the 2019 International Conference on Blockchain Technology</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>0</v>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1729,8 +1845,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>2018</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1744,7 +1862,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>economics of security,privacy,nothing,human and societal aspect of security and privacy,system security</t>
+          <t>privacy,nothing</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1752,8 +1870,10 @@
           <t>ASIACCS '18: Proceedings of the 2018 on Asia Conference on Computer and Communications Security</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>12</v>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1772,8 +1892,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>2020</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1787,7 +1909,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>solidity,security patch,contract,empirical study</t>
+          <t>security patch,empirical study,contract,solidity</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1795,8 +1917,10 @@
           <t>ICSE '20: Proceedings of the ACM/IEEE 42nd International Conference on Software Engineering</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1815,8 +1939,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>2019</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1830,7 +1956,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>software,application security,system security,verification,privacy,nothing,logic,security in hardware,formal method,theory of security</t>
+          <t>privacy,theory of security,nothing,logic,formal approach,security in hardware</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1838,8 +1964,10 @@
           <t>SOSP '19: Proceedings of the 27th ACM Symposium on Operating Systems Principles</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>0</v>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1858,8 +1986,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>2017</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1881,8 +2011,10 @@
           <t>CHI '17: Proceedings of the 2017 CHI Conference on Human Factors in Computing Systems</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>36</v>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1901,8 +2033,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>2019</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1916,7 +2050,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>computer system organization,architecture,network reliability,peer-to-peer architecture,network property,distribute architecture,network</t>
+          <t>distribute architecture,network,network reliability,nothing,peer-to-peer architecture,computer system organization</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1924,8 +2058,10 @@
           <t>BSCI '19: Proceedings of the 2019 ACM International Symposium on Blockchain and Secure Critical Infrastructure</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>1</v>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1944,8 +2080,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>2017</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1959,7 +2097,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>computer system organization,architecture,security protocol,privacy-preserving protocol,peer-to-peer architecture,network property,privacy,nothing,security service,distribute architecture,mobile,wireless security,network</t>
+          <t>security protocol,privacy,distribute architecture,network,wireless security,security service,nothing,peer-to-peer architecture,computer system organization,mobile,privacy-preserving protocol</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1967,8 +2105,10 @@
           <t>ASIA CCS '17: Proceedings of the 2017 ACM on Asia Conference on Computer and Communications Security</t>
         </is>
       </c>
-      <c r="F36" t="n">
-        <v>5</v>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1987,8 +2127,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>2018</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2002,7 +2144,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>electronic commerce,economics of security,digital cash,apply compute,nothing,privacy,human and societal aspect of security and privacy</t>
+          <t>digital cash,apply compute,privacy,nothing,electronic commerce</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2010,8 +2152,10 @@
           <t>ACM Transactions on Internet Technology</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>12</v>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2030,8 +2174,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>2019</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2045,7 +2191,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>economics of security,privacy,nothing,human and societal aspect of security and privacy,system security</t>
+          <t>privacy,nothing</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2053,8 +2199,10 @@
           <t>CCS '19: Proceedings of the 2019 ACM SIGSAC Conference on Computer and Communications Security</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>6</v>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2073,8 +2221,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>2019</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2088,7 +2238,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>cryptography,privacy,nothing,key management</t>
+          <t>privacy,cryptography,key management,nothing</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2096,8 +2246,10 @@
           <t>AIIPCC '19: Proceedings of the International Conference on Artificial Intelligence, Information Processing and Cloud Computing</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>0</v>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2116,8 +2268,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>2020</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2131,7 +2285,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>network property,privacy,nothing,system security,network</t>
+          <t>privacy,network,nothing</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2139,8 +2293,10 @@
           <t>SBC '20: Proceedings of the 8th International Workshop on Security in Blockchain and Cloud Computing</t>
         </is>
       </c>
-      <c r="F40" t="n">
-        <v>0</v>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2159,8 +2315,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>2020</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2182,8 +2340,10 @@
           <t>ICBCT'20: Proceedings of the 2020 The 2nd International Conference on Blockchain Technology</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2202,8 +2362,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>2019</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2217,7 +2379,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>general conference proceed,reference,document type,privacy,nothing,general,system security</t>
+          <t>document type,privacy,general conference proceed,nothing,general,reference</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2225,8 +2387,10 @@
           <t>IECC '19: Proceedings of the 2019 International Electronics Communication Conference</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>0</v>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2245,8 +2409,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>2020</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2260,7 +2426,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>query of encrypt data,storage security,database,privacy,nothing,human and societal aspect of security and privacy,management</t>
+          <t>database,privacy,query of encrypt data,management,storage security,nothing</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2268,8 +2434,10 @@
           <t>ICCA 2020: Proceedings of the International Conference on Computing Advancements</t>
         </is>
       </c>
-      <c r="F43" t="n">
-        <v>0</v>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2288,8 +2456,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>2019</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2303,7 +2473,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>authorization,privacy,nothing,security service</t>
+          <t>privacy,authorization,security service,nothing</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2311,8 +2481,10 @@
           <t>HP3C '19: Proceedings of the 3rd International Conference on High Performance Compilation, Computing and Communications</t>
         </is>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2331,8 +2503,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>2018</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2346,7 +2520,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>software,application security,verification,privacy,nothing,logic,formal method,theory of security</t>
+          <t>privacy,theory of security,nothing,logic,formal approach</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2354,8 +2528,10 @@
           <t>CCS '18: Proceedings of the 2018 ACM SIGSAC Conference on Computer and Communications Security</t>
         </is>
       </c>
-      <c r="F45" t="n">
-        <v>101</v>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2374,8 +2550,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>2019</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2389,7 +2567,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>software,application security,domain-specific security and privacy architecture,privacy,nothing,system security</t>
+          <t>privacy,domain-specific security and privacy architecture,nothing</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2397,8 +2575,10 @@
           <t>CCS '19: Proceedings of the 2019 ACM SIGSAC Conference on Computer and Communications Security</t>
         </is>
       </c>
-      <c r="F46" t="n">
-        <v>0</v>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2417,8 +2597,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>2017</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2432,7 +2614,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>economics of security,privacy,nothing,human and societal aspect of security and privacy,system security</t>
+          <t>privacy,nothing</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2440,8 +2622,10 @@
           <t>CCS '17: Proceedings of the 2017 ACM SIGSAC Conference on Computer and Communications Security</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>54</v>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2460,8 +2644,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>2019</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2475,7 +2661,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>information storage system,information system,record storage system,page strategy,block</t>
+          <t>page strategy,record storage system,information storage system,block,information system</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2483,8 +2669,10 @@
           <t>ICBTA 2019: Proceedings of the 2019 2nd International Conference on Blockchain Technology and Applications</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>0</v>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2503,8 +2691,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>2017</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2518,7 +2708,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>domain specific language,nothing,formal verification,security evaluation,formal method</t>
+          <t>domain specific language,formal approach,security evaluation,nothing</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2526,8 +2716,10 @@
           <t>FMCAD '17: Proceedings of the 17th Conference on Formal Methods in Computer-Aided Design</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>0</v>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2546,8 +2738,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>2015</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2561,7 +2755,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>technology policy,professional topic,privacy,nothing,privacy policy,compute,human and societal aspect of security and privacy,social</t>
+          <t>privacy,professional topic,compute,privacy policy,nothing,technology policy,social</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2569,8 +2763,10 @@
           <t>WPES '15: Proceedings of the 14th ACM Workshop on Privacy in the Electronic Society</t>
         </is>
       </c>
-      <c r="F50" t="n">
-        <v>8</v>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2589,8 +2785,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>2019</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2604,7 +2802,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>message authentication code,hash function,cryptography,privacy,nothing,symmetric cryptography</t>
+          <t>privacy,message authentication code,symmetric cryptography,nothing,cryptography</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2612,8 +2810,10 @@
           <t>ICCSP '19: Proceedings of the 3rd International Conference on Cryptography, Security and Privacy</t>
         </is>
       </c>
-      <c r="F51" t="n">
-        <v>0</v>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2632,8 +2832,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>2017</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2647,7 +2849,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>software,application security,economics of security,privacy,nothing,human and societal aspect of security and privacy,software security</t>
+          <t>privacy,nothing</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2655,8 +2857,10 @@
           <t>NSPW 2017: Proceedings of the 2017 New Security Paradigms Workshop</t>
         </is>
       </c>
-      <c r="F52" t="n">
-        <v>1</v>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2675,8 +2879,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>2020</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2690,7 +2896,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>privacy,nothing,storage security,database</t>
+          <t>privacy,database,storage security,nothing</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2698,8 +2904,10 @@
           <t>IECC 2020: Proceedings of the 2020 2nd International Electronics Communication Conference</t>
         </is>
       </c>
-      <c r="F53" t="n">
-        <v>0</v>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2718,8 +2926,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>2019</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2733,7 +2943,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>network reliability,network property,privacy,nothing,network</t>
+          <t>privacy,network,network reliability,nothing</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2741,8 +2951,10 @@
           <t>IWQoS '19: Proceedings of the International Symposium on Quality of Service</t>
         </is>
       </c>
-      <c r="F54" t="n">
-        <v>0</v>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2761,8 +2973,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>2019</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2776,7 +2990,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>learn paradigm,anomaly detection,unsupervised learn,software,application security,software security,privacy,nothing,supervise learn,machine learning,compute methodology</t>
+          <t>unsupervised learn,anomaly detection,privacy,supervise learn,compute methodology,nothing,learn paradigm,machine learning</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2784,8 +2998,10 @@
           <t>ICVISP 2019: Proceedings of the 3rd International Conference on Vision, Image and Signal Processing</t>
         </is>
       </c>
-      <c r="F55" t="n">
-        <v>0</v>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2804,8 +3020,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>2019</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2819,7 +3037,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>network property,nothing,denial-of-service attack,network</t>
+          <t>network,denial-of-service attack,nothing</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2827,8 +3045,10 @@
           <t>ICDCN '19: Proceedings of the 20th International Conference on Distributed Computing and Networking</t>
         </is>
       </c>
-      <c r="F56" t="n">
-        <v>1</v>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2847,8 +3067,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>2017</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2862,7 +3084,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>pseudonymity,privacy-preserving protocol,computational complexity,cryptography,privacy,nothing,security service,untraceability,cryptographic protocol,anonymity,theory of computation</t>
+          <t>anonymity,theory of computation,cryptographic protocol,privacy,untraceability,nothing,security service,cryptography,privacy-preserving protocol,pseudonymity,computational complexity</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2870,8 +3092,10 @@
           <t>CCS '17: Proceedings of the 2017 ACM SIGSAC Conference on Computer and Communications Security</t>
         </is>
       </c>
-      <c r="F57" t="n">
-        <v>12</v>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2890,8 +3114,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>2020</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2905,12 +3131,14 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>post-quantum cryptography,nothing,hyperledger fabric</t>
+          <t>hyperledger fabric,post-quantum cryptography,nothing</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="n">
-        <v>0</v>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2929,8 +3157,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>2020</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2944,7 +3174,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>internet of things,distributed ledger,consensus,contract,privacy,nothing</t>
+          <t>privacy,nothing,internet of things,contract,consensus protocol</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2952,8 +3182,10 @@
           <t>ArXiv</t>
         </is>
       </c>
-      <c r="F59" t="n">
-        <v>0</v>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2972,8 +3204,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>2020</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2987,7 +3221,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>internet of things,edge compute,general-purpose model,isolation,fault detection,interaction,software bug,fault tolerance,algorithm,distribute compute,autonomous robot,computation</t>
+          <t>general-purpose model,isolation,software bug,fault tolerance,autonomous robot,fault detection,internet of things,distribute compute,nothing,interaction,edge compute,computation</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2995,8 +3229,10 @@
           <t>ArXiv</t>
         </is>
       </c>
-      <c r="F60" t="n">
-        <v>0</v>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3015,8 +3251,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>2020</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3030,7 +3268,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>genesis,stateless protocol,digital linear tape,byzantine fault tolerance,bitcoin</t>
+          <t>stateless protocol,genesis,bitcoin,digital linear tape,byzantine fault tolerance</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3038,8 +3276,10 @@
           <t>ArXiv</t>
         </is>
       </c>
-      <c r="F61" t="n">
-        <v>0</v>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3058,8 +3298,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>2020</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3073,7 +3315,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>honeypot ,program language,transfer function,automate theorem prove,refinement ,validation,formal verification,type system,first-order logic,simulation,algorithm,requirement,immutable object,domain-specific language,ethereum,first-order predicate,rodin tool,contract,verification,solidity,principle of abstraction,b-method,formal method</t>
+          <t>transfer function,program language,solidity,b-method,contract,first-order logic,immutable object,domain-specific language,nothing,principle of abstraction,first-order predicate,rodin tool,refinement ,validation,formal approach,type system,simulation,automate theorem prove,honeypot ,ethereum</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3081,8 +3323,10 @@
           <t>ArXiv</t>
         </is>
       </c>
-      <c r="F62" t="n">
-        <v>1</v>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3101,8 +3345,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>2020</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3116,7 +3362,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>double-spending,malware,immutable object,cryptocurrency,adversary ,selection algorithm,markov chain,direct acyclic graph,numerical analysis,iota,sample ,jot</t>
+          <t>immutable object,jot,sample ,malware,markov chain,double-spending,cryptocurrency,numerical analysis,iota,selection algorithm,adversary ,direct acyclic graph</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3124,8 +3370,10 @@
           <t>ArXiv</t>
         </is>
       </c>
-      <c r="F63" t="n">
-        <v>0</v>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3145,8 +3393,10 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>2020</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -3160,7 +3410,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>scalability,amortize analysis,overhead ,throughput,commitment scheme,recovery procedure,shard ,malware,computation</t>
+          <t>throughput,commitment scheme,scalability,malware,amortize analysis,overhead ,shard ,recovery procedure,computation</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3168,8 +3418,10 @@
           <t>2020 IEEE International Parallel and Distributed Processing Symposium (IPDPS)</t>
         </is>
       </c>
-      <c r="F64" t="n">
-        <v>2</v>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3188,8 +3440,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>2019</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3203,7 +3457,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>business logic,interaction,information sensitivity,enterprise system,spectral leakage,requirement,confidentiality,personally identifiable information,data integrity,distributed ledger,scalability,business process,privacy,encryption,computation,contract,entity,enterprise integration,naruto shippuden: clash of ninja revolution 3,holographic principle</t>
+          <t>holographic principle,contract,information sensitivity,personally identifiable information,scalability,privacy,business logic,business process,entity,naruto shippuden: clash of ninja revolution 3,nothing,interaction,computation,enterprise system,confidentiality,enterprise integration,data integrity,spectral leakage,encryption</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3211,8 +3465,10 @@
           <t>Middleware '19</t>
         </is>
       </c>
-      <c r="F65" t="n">
-        <v>0</v>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3231,8 +3487,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>2020</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3246,7 +3504,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>authorization,differential privacy,trust third party,bitcoin,pervasive informatics,peer-to-peer,cryptographic hash function,tamper resistance</t>
+          <t>authorization,cryptographic hash function,network,tamper resistance,bitcoin,trust third party,differential privacy,pervasive informatics</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3254,8 +3512,10 @@
           <t>J. Parallel Distributed Comput.</t>
         </is>
       </c>
-      <c r="F66" t="n">
-        <v>1</v>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3274,8 +3534,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>2019</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3289,7 +3551,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>quantum information,ethereum,distributed ledger,quantum algorithm,quantum entanglement,database,temporal logic,centralize compute,quantum compute,bitcoin,computer</t>
+          <t>database,computer,quantum entanglement,quantum algorithm,temporal logic,bitcoin,nothing,quantum compute,quantum information,ethereum,centralize compute</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3297,8 +3559,10 @@
           <t>ArXiv</t>
         </is>
       </c>
-      <c r="F67" t="n">
-        <v>0</v>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3317,8 +3581,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>2019</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3332,7 +3598,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>sybil attack,value ,web of trust,proof-of-work system,peer-to-peer,social network,byzantine fault tolerance</t>
+          <t>value ,attack,social network,network,byzantine fault tolerance,proof-of-work system,web of trust</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3340,8 +3606,10 @@
           <t>ArXiv</t>
         </is>
       </c>
-      <c r="F68" t="n">
-        <v>1</v>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3360,8 +3628,10 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>2019</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3375,7 +3645,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>markov chain monte carlo,simulation,selection algorithm,direct acyclic graph,iota,immutable object,mathematics,jot,procedural generation</t>
+          <t>immutable object,jot,procedural generation,simulation,mathematics,markov chain monte carlo,iota,selection algorithm,direct acyclic graph</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3383,8 +3653,10 @@
           <t>ArXiv</t>
         </is>
       </c>
-      <c r="F69" t="n">
-        <v>7</v>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3403,8 +3675,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>2019</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3418,7 +3692,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>digital signature,hash function,protocol documentation,contract,brute-force search,cryptocurrency,database,cryptography,antivirus software,marijuana abuse,contract agreement,brute-force attack,bitcoin</t>
+          <t>database,brute-force search,contract agreement,cryptocurrency,brute-force attack,bitcoin,antivirus software,marijuana abuse,contract,protocol documentation,cryptography</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3426,8 +3700,10 @@
           <t>BIS</t>
         </is>
       </c>
-      <c r="F70" t="n">
-        <v>2</v>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3446,8 +3722,10 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>2019</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -3461,7 +3739,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>global network,essence,distribute compute,requirement,bitcoin</t>
+          <t>global network,essence,bitcoin,distribute compute,nothing</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3469,8 +3747,10 @@
           <t>2019 IEEE International Conference on Blockchain and Cryptocurrency (ICBC)</t>
         </is>
       </c>
-      <c r="F71" t="n">
-        <v>0</v>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3489,8 +3769,10 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>2019</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -3504,7 +3786,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>internet of things,cryptocurrency,distribute transaction,computation,algorithm,bitcoin</t>
+          <t>distribute transaction,cryptocurrency,bitcoin,internet of things,nothing,computation</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3512,8 +3794,10 @@
           <t>ArXiv</t>
         </is>
       </c>
-      <c r="F72" t="n">
-        <v>12</v>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3532,8 +3816,10 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>2019</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -3547,7 +3833,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>authorization,type signature,key derivation function,stealth,public-key cryptography,privacy,antivirus software,ring signature,requirement,digital signature,cryptonote</t>
+          <t>key derivation function,public-key cryptography,authorization,privacy,cryptonote,antivirus software,nothing,stealth,cryptography</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3555,8 +3841,10 @@
           <t>ArXiv</t>
         </is>
       </c>
-      <c r="F73" t="n">
-        <v>1</v>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3575,8 +3863,10 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>2019</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -3590,7 +3880,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>ethereum,business logic,contract,computer performance,traction teampage,software portability,distribute compute,requirement,formal verification,virtual machine,computer data storage,lock ,bitcoin</t>
+          <t>lock ,business logic,computer data storage,computer performance,bitcoin,virtual machine,software portability,traction teampage,distribute compute,contract,nothing,ethereum,formal approach</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3598,8 +3888,10 @@
           <t>2019 IEEE International Conference on Blockchain and Cryptocurrency (ICBC)</t>
         </is>
       </c>
-      <c r="F74" t="n">
-        <v>4</v>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3618,8 +3910,10 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>2019</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -3633,7 +3927,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>double-spending,shard ,asynchrony ,replay attack</t>
+          <t>asynchrony ,double-spending,shard ,replay attack</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3641,8 +3935,10 @@
           <t>ArXiv</t>
         </is>
       </c>
-      <c r="F75" t="n">
-        <v>7</v>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3661,8 +3957,10 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>2019</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -3676,7 +3974,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>internet of things,public-key cryptography,algorithm,nothing,home automation,population,machine learning,sensor,bitcoin,omness</t>
+          <t>sensor,public-key cryptography,population,bitcoin,internet of things,nothing,omness,home automation,machine learning</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3684,8 +3982,10 @@
           <t>2019 IEEE 44th Conference on Local Computer Networks (LCN)</t>
         </is>
       </c>
-      <c r="F76" t="n">
-        <v>10</v>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -3704,8 +4004,10 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>2019</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -3719,7 +4021,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>rsa ,modulus of continuity,modulus robot,ring signature,digital signature</t>
+          <t>rsa ,modulus robot,modulus of continuity,cryptography</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3727,8 +4029,10 @@
           <t>IACR Cryptol. ePrint Arch.</t>
         </is>
       </c>
-      <c r="F77" t="n">
-        <v>6</v>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -3748,8 +4052,10 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>2018</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -3763,7 +4069,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>real-time clock,exponential,exploit ,smartphone,tablet dosage form,human,sensor,internet of things,program paradigm,synergy,smart device,solution,immutable object,time complexity,bitcoin,e-commerce,smart city,certification,botnet,health fraud,cryptocurrency,entity,ephrin type-b receptor 1,tablet computer</t>
+          <t>sensor,real-time clock,smart device,bitcoin,immutable object,ephrin type-b receptor 1,health fraud,cryptocurrency,entity,smartphone,program paradigm,tablet computer,exploit ,time complexity,e-commerce,human,smart city,exponential,tablet dosage form,solution,botnet,synergy,internet of things,certification</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3771,8 +4077,10 @@
           <t>ArXiv</t>
         </is>
       </c>
-      <c r="F78" t="n">
-        <v>4</v>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -3791,8 +4099,10 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>2018</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -3806,7 +4116,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>shamir's secret share,cryptocurrency,cryptography,encryption,immutable object,computer data storage,identifier,bitcoin,zero-knowledge proof</t>
+          <t>immutable object,computer data storage,cryptocurrency,bitcoin,encryption,shamir's secret share,cryptography,zero-knowledge proof,identifier</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3814,8 +4124,10 @@
           <t>2018 IEEE/ACM 1st International Workshop on Emerging Trends in Software Engineering for Blockchain (WETSEB)</t>
         </is>
       </c>
-      <c r="F79" t="n">
-        <v>21</v>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -3834,8 +4146,10 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>2017</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3849,7 +4163,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>programmer,mortar method,contract,moral hazard,unintended consequence</t>
+          <t>mortar method,unintended consequence,moral hazard,contract,programmer</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3857,8 +4171,10 @@
           <t>ArXiv</t>
         </is>
       </c>
-      <c r="F80" t="n">
-        <v>1</v>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -3877,8 +4193,10 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>2016</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3892,7 +4210,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>double-spending,node ,computational resource,cryptocurrency,algorithm,bitcoin</t>
+          <t>double-spending,cryptocurrency,bitcoin,node ,nothing,computational resource</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3900,8 +4218,10 @@
           <t>Financial Cryptography</t>
         </is>
       </c>
-      <c r="F81" t="n">
-        <v>349</v>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -3920,8 +4240,10 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>2020</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3935,7 +4257,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>cryptocurrency,privacy,nothing,dust attack,threat,bitcoin</t>
+          <t>privacy,dust attack,cryptocurrency,bitcoin,nothing,threat</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3943,8 +4265,10 @@
           <t>2020 3rd International Conference on Computer Applications &amp; Information Security (ICCAIS)</t>
         </is>
       </c>
-      <c r="F82" t="n">
-        <v>0</v>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -3963,8 +4287,10 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>2019</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3978,7 +4304,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>security analysis,peer-to-peer network,countermeasure,block propagation,eclipse attack,bitcoin</t>
+          <t>bitcoin,eclipse attack,countermeasure,peer-to-peer network,security analysis,block propagation</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3986,8 +4312,10 @@
           <t>2019 IEEE International Conference on Blockchain (Blockchain)</t>
         </is>
       </c>
-      <c r="F83" t="n">
-        <v>0</v>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4006,8 +4334,10 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>2019</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -4021,7 +4351,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>bitcoin security,bitcoin cyberattacks,cryptocurrency,decentralize payment system,nothing,digital wallet,p2p transaction,digital money,bitcoin</t>
+          <t>decentralize payment system,p2p transaction,digital wallet,cryptocurrency,digital money,bitcoin,bitcoin security,bitcoin cyberattacks,nothing</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4029,8 +4359,10 @@
           <t>2019 International Symposium on Signals, Circuits and Systems (ISSCS)</t>
         </is>
       </c>
-      <c r="F84" t="n">
-        <v>0</v>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4049,8 +4381,10 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>2018</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -4064,7 +4398,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>internet of things,nothing,distribute system,bitcoin</t>
+          <t>bitcoin,internet of things,distribute system,nothing</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4072,8 +4406,10 @@
           <t>2018 3rd International Conference on Communication and Electronics Systems (ICCES)</t>
         </is>
       </c>
-      <c r="F85" t="n">
-        <v>2</v>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4092,8 +4428,10 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>2018</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -4115,8 +4453,10 @@
           <t>IEEE Access</t>
         </is>
       </c>
-      <c r="F86" t="n">
-        <v>10</v>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4135,8 +4475,10 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>2018</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -4150,7 +4492,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>conflict,nothing,attack,conflict check protocol,arbitration mechanism,bitcoin</t>
+          <t>conflict check protocol,attack,arbitration mechanism,conflict,bitcoin,nothing</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4158,8 +4500,10 @@
           <t>2018 International Conference on Computing, Networking and Communications (ICNC)</t>
         </is>
       </c>
-      <c r="F87" t="n">
-        <v>0</v>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4178,8 +4522,10 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>2018</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -4193,7 +4539,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>block withhold,decentralize,proof-of-work,51% attack,mine process,anonymity,double spend attack,bitcoin,miner</t>
+          <t>mine process,anonymity,decentralize,attack,bitcoin,miner,consensus protocol,block withhold</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4201,8 +4547,10 @@
           <t>2018 International Conference on Wireless Communications, Signal Processing and Networking (WiSPNET)</t>
         </is>
       </c>
-      <c r="F88" t="n">
-        <v>0</v>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4221,8 +4569,10 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>2020</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -4236,7 +4586,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>cryptocurrency exchange,cyber threat intelligence,nothing,attack,bitcoin</t>
+          <t>attack,cryptocurrency exchange,bitcoin,cyber threat intelligence,nothing</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4244,8 +4594,10 @@
           <t>2020 IEEE International Conference on Blockchain and Cryptocurrency (ICBC)</t>
         </is>
       </c>
-      <c r="F89" t="n">
-        <v>0</v>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4264,8 +4616,10 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>2018</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -4279,7 +4633,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>51% attack,nothing,mine,double spend attack</t>
+          <t>mine,attack,nothing</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4287,8 +4641,10 @@
           <t>2018 48th Annual IEEE/IFIP International Conference on Dependable Systems and Networks Workshops (DSN-W)</t>
         </is>
       </c>
-      <c r="F90" t="n">
-        <v>4</v>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4307,8 +4663,10 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>2020</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -4322,7 +4680,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>ethereum,nothing,light ethereum subprotocol,light client</t>
+          <t>light ethereum subprotocol,ethereum,light client,nothing</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4330,8 +4688,10 @@
           <t>IEEE Access</t>
         </is>
       </c>
-      <c r="F91" t="n">
-        <v>0</v>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4350,8 +4710,10 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>2019</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -4365,7 +4727,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>51% attack,nothing,mine,double spend attack</t>
+          <t>mine,attack,nothing</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4373,8 +4735,10 @@
           <t>2019 IEEE International Conference on Blockchain (Blockchain)</t>
         </is>
       </c>
-      <c r="F92" t="n">
-        <v>2</v>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4393,8 +4757,10 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>2018</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -4408,7 +4774,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>distributed ledger,ethereum,hyper- ledger,nothing,attack,bitcoin</t>
+          <t>hyper- ledger,attack,bitcoin,nothing,ethereum</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4416,8 +4782,10 @@
           <t>2018 IEEE Middle East and North Africa Communications Conference (MENACOMM)</t>
         </is>
       </c>
-      <c r="F93" t="n">
-        <v>16</v>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4436,8 +4804,10 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>2017</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -4451,7 +4821,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>hack,proof-of-stake,cryptography,nothing,vulnerability,governance,proof-of-work,software defect</t>
+          <t>governance,nothing,software defect,hack,consensus protocol,cryptography,proof-of-stake</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4459,8 +4829,10 @@
           <t>2017 15th Annual Conference on Privacy, Security and Trust (PST)</t>
         </is>
       </c>
-      <c r="F94" t="n">
-        <v>1</v>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4479,8 +4851,10 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>2017</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -4494,7 +4868,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>blochchain,nothing,secure element,bitcoin</t>
+          <t>blochchain,nothing,bitcoin</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4502,8 +4876,10 @@
           <t>2017 Third International Conference on Mobile and Secure Services (MobiSecServ)</t>
         </is>
       </c>
-      <c r="F95" t="n">
-        <v>0</v>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4522,8 +4898,10 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>2018</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -4537,7 +4915,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>nothing,vulnerability,peer-to-peer,eclipse attack,bitcoin</t>
+          <t>eclipse attack,nothing,network,bitcoin</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4545,8 +4923,10 @@
           <t>2018 Third International Conference on Security of Smart Cities, Industrial Control System and Communications (SSIC)</t>
         </is>
       </c>
-      <c r="F96" t="n">
-        <v>2</v>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4565,8 +4945,10 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>2019</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -4580,7 +4962,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>air gap storage,markov model,attack surface,private key storage,nothing,channel exfiltration,key extraction,air gap wallet</t>
+          <t>attack surface,air gap storage,air gap wallet,key extraction,markov model,nothing,channel exfiltration,private key storage</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4588,8 +4970,10 @@
           <t>2019 IEEE International Conference on Blockchain (Blockchain)</t>
         </is>
       </c>
-      <c r="F97" t="n">
-        <v>0</v>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -4608,8 +4992,10 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>2018</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -4623,7 +5009,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>nothing,majority attack,proof of work ,bitcoin</t>
+          <t>majority attack,nothing,proof of work ,bitcoin</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4631,8 +5017,10 @@
           <t>2018 IEEE 23rd Pacific Rim International Symposium on Dependable Computing (PRDC)</t>
         </is>
       </c>
-      <c r="F98" t="n">
-        <v>0</v>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -4651,8 +5039,10 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>2018</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -4666,7 +5056,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>anti-dust,nothing,bitcoin,dust attack</t>
+          <t>bitcoin,dust attack,anti-dust,nothing</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4674,8 +5064,10 @@
           <t>2018 International Conference on Information Systems and Computer Aided Education (ICISCAE)</t>
         </is>
       </c>
-      <c r="F99" t="n">
-        <v>1</v>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -4694,8 +5086,10 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>2018</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -4709,7 +5103,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>computer security,algorithmic game theory,anomaly detection,majority attack,nothing,machine learning,network</t>
+          <t>majority attack,network,anomaly detection,computer security,nothing,algorithmic game theory,machine learning</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4717,8 +5111,10 @@
           <t>2018 10th Computer Science and Electronic Engineering (CEEC)</t>
         </is>
       </c>
-      <c r="F100" t="n">
-        <v>3</v>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -4737,8 +5133,10 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>2018</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -4752,7 +5150,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ethereum,vulnerability analysis,geth,defence,nothing</t>
+          <t>defence,vulnerability analysis,nothing,ethereum,geth</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4760,8 +5158,10 @@
           <t>2018 IEEE Globecom Workshops (GC Wkshps)</t>
         </is>
       </c>
-      <c r="F101" t="n">
-        <v>4</v>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -4780,8 +5180,10 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
-        <v>2019</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -4795,7 +5197,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>double-spending,sybil attack,bitcoin</t>
+          <t>double-spending,attack,bitcoin</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4803,8 +5205,10 @@
           <t>IEEE Transactions on Industrial Informatics</t>
         </is>
       </c>
-      <c r="F102" t="n">
-        <v>5</v>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -4823,8 +5227,10 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
-        <v>2019</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -4838,7 +5244,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>ethereum,contract,nothing,risk,vulnerability,threat,bitcoin</t>
+          <t>bitcoin,risk,contract,nothing,ethereum,threat</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4846,8 +5252,10 @@
           <t>2019 IEEE Asia-Pacific Conference on Computer Science and Data Engineering (CSDE)</t>
         </is>
       </c>
-      <c r="F103" t="n">
-        <v>0</v>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -4866,8 +5274,10 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
-        <v>2018</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -4881,7 +5291,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>countermeasure,nothing,objectionable content,bitcoin</t>
+          <t>nothing,countermeasure,objectionable content,bitcoin</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4889,8 +5299,10 @@
           <t>2018 IEEE International Conference on Cloud Engineering (IC2E)</t>
         </is>
       </c>
-      <c r="F104" t="n">
-        <v>11</v>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -4909,8 +5321,10 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
-        <v>2018</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -4924,7 +5338,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>distributed ledger,database security,nothing,threat,bitcoin</t>
+          <t>nothing,database security,threat,bitcoin</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4932,8 +5346,10 @@
           <t>2018 Second International Conference on Intelligent Computing and Control Systems (ICICCS)</t>
         </is>
       </c>
-      <c r="F105" t="n">
-        <v>0</v>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -4952,8 +5368,10 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
-        <v>2019</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -4967,7 +5385,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>hybrid,privacy,nothing,auction</t>
+          <t>privacy,hybrid,auction,nothing</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4975,8 +5393,10 @@
           <t>2019 IEEE International Conference on Blockchain (Blockchain)</t>
         </is>
       </c>
-      <c r="F106" t="n">
-        <v>2</v>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -4995,8 +5415,10 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
-        <v>2018</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -5010,7 +5432,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>internet of things,survey,contract,decentralization,cryptocurrency,nothing,peer-to-peer,bitcoin</t>
+          <t>decentralization,network,cryptocurrency,bitcoin,internet of things,contract,nothing,survey</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5018,8 +5440,10 @@
           <t>2018 IEEE Symposium Series on Computational Intelligence (SSCI)</t>
         </is>
       </c>
-      <c r="F107" t="n">
-        <v>1</v>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5038,8 +5462,10 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
-        <v>2020</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -5053,7 +5479,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>nothing,secure element,trust</t>
+          <t>trust,nothing</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5061,8 +5487,10 @@
           <t>2020 IEEE 17th Annual Consumer Communications &amp; Networking Conference (CCNC)</t>
         </is>
       </c>
-      <c r="F108" t="n">
-        <v>0</v>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5081,8 +5509,10 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
-        <v>2019</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -5096,7 +5526,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>tendermint,ibc,nothing,security practice</t>
+          <t>security practice,ibc,tendermint,nothing</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5104,8 +5534,10 @@
           <t>2019 IEEE International Workshop on Blockchain Oriented Software Engineering (IWBOSE)</t>
         </is>
       </c>
-      <c r="F109" t="n">
-        <v>1</v>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5124,8 +5556,10 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
-        <v>2019</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -5139,7 +5573,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>security deposit,contract theory,nothing,sharding</t>
+          <t>nothing,contract theory,sharding,security deposit</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5147,8 +5581,10 @@
           <t>2019 IEEE International Conference on Blockchain (Blockchain)</t>
         </is>
       </c>
-      <c r="F110" t="n">
-        <v>1</v>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5167,8 +5603,10 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
-        <v>2019</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -5182,7 +5620,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>internet of things,nothing,on-off attack,distribute trust</t>
+          <t>distribute trust,internet of things,on-off attack,nothing</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5190,8 +5628,10 @@
           <t>2019 24th IEEE International Conference on Emerging Technologies and Factory Automation (ETFA)</t>
         </is>
       </c>
-      <c r="F111" t="n">
-        <v>1</v>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5210,8 +5650,10 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
-        <v>2017</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -5225,7 +5667,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>bitcoin mine,block withhold attack,commitment scheme,selfish miner,mining pool</t>
+          <t>commitment scheme,mine,selfish miner,block withhold attack,bitcoin mine</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5233,8 +5675,10 @@
           <t>IEEE Transactions on Information Forensics and Security</t>
         </is>
       </c>
-      <c r="F112" t="n">
-        <v>40</v>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5253,8 +5697,10 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>2018</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -5268,7 +5714,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>distributed ledger,nothing,threat,cryptographic protocol</t>
+          <t>threat,cryptographic protocol,nothing</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5276,8 +5722,10 @@
           <t>2018 IEEE 32nd International Conference on Advanced Information Networking and Applications (AINA)</t>
         </is>
       </c>
-      <c r="F113" t="n">
-        <v>0</v>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5296,8 +5744,10 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
-        <v>2019</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -5311,7 +5761,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>fork after withhold,mine,mining pool,block withhold attack</t>
+          <t>mine,block withhold attack,fork after withhold</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5319,8 +5769,10 @@
           <t>2019 Crypto Valley Conference on Blockchain Technology (CVCBT)</t>
         </is>
       </c>
-      <c r="F114" t="n">
-        <v>0</v>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5339,8 +5791,10 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
-        <v>2017</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -5354,7 +5808,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>bitcoin,secure compute,dependability,archival science,nothing,dependable,trust</t>
+          <t>archival science,trust,bitcoin,secure compute,dependability,dependable,nothing</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5362,8 +5816,10 @@
           <t>2017 IEEE International Conference on Big Data (Big Data)</t>
         </is>
       </c>
-      <c r="F115" t="n">
-        <v>5</v>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5382,8 +5838,10 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>2019</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -5397,7 +5855,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>algorithm,nothing,storage balance</t>
+          <t>storage balance,nothing</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5405,8 +5863,10 @@
           <t>2019 IEEE 21st International Conference on High Performance Computing and Communications; IEEE 17th International Conference on Smart City; IEEE 5th International Conference on Data Science and Systems (HPCC/SmartCity/DSS)</t>
         </is>
       </c>
-      <c r="F116" t="n">
-        <v>1</v>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5425,8 +5885,10 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
-        <v>2019</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -5440,7 +5902,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>internet of things,ethereum,pool mine,coin hop attack,nothing,bitcoin</t>
+          <t>coin hop attack,pool mine,bitcoin,internet of things,nothing,ethereum</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5448,8 +5910,10 @@
           <t>IEEE Internet of Things Journal</t>
         </is>
       </c>
-      <c r="F117" t="n">
-        <v>2</v>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5468,8 +5932,10 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>2020</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -5483,7 +5949,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>ethereum,selfish mine,uncle block,eclipse attack,stubborn mine</t>
+          <t>uncle block,mine,eclipse attack,stubborn mine,ethereum</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5491,8 +5957,10 @@
           <t>IEEE Access</t>
         </is>
       </c>
-      <c r="F118" t="n">
-        <v>0</v>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -5511,8 +5979,10 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>2019</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -5526,7 +5996,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>ethereum,internet of thing ,privacy,nothing,proof of authority</t>
+          <t>proof of authority,privacy,internet of thing ,nothing,ethereum</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5534,8 +6004,10 @@
           <t>2019 International Conference on Cyber Security and Protection of Digital Services (Cyber Security)</t>
         </is>
       </c>
-      <c r="F119" t="n">
-        <v>0</v>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -5554,8 +6026,10 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
-        <v>2020</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -5569,7 +6043,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>vulnerability,nothing,threat categorization,threat</t>
+          <t>threat categorization,threat,nothing</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5577,8 +6051,10 @@
           <t>2020 First International Conference on Power, Control and Computing Technologies (ICPC2T)</t>
         </is>
       </c>
-      <c r="F120" t="n">
-        <v>0</v>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -5597,8 +6073,10 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
-        <v>2018</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -5612,7 +6090,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>distributed ledger,nothing,transaction system,privacy</t>
+          <t>privacy,transaction system,nothing</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5620,8 +6098,10 @@
           <t>2018 IEEE International Conference on Internet of Things (iThings) and IEEE Green Computing and Communications (GreenCom) and IEEE Cyber, Physical and Social Computing (CPSCom) and IEEE Smart Data (SmartData)</t>
         </is>
       </c>
-      <c r="F121" t="n">
-        <v>1</v>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -5640,8 +6120,10 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
-        <v>2019</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -5655,7 +6137,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>delay attack,hash function,byzantine general problem,partition,nothing,double spend attack</t>
+          <t>attack,delay attack,byzantine general problem,nothing,cryptography,partition</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5663,8 +6145,10 @@
           <t>2019 8th International Conference on Modeling Simulation and Applied Optimization (ICMSAO)</t>
         </is>
       </c>
-      <c r="F122" t="n">
-        <v>1</v>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -5683,8 +6167,10 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
-        <v>2019</v>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -5698,7 +6184,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>nothing,e-voting system,vulnerability,risk</t>
+          <t>risk,e-voting system,nothing</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5706,8 +6192,10 @@
           <t>2019 16th International Computer Conference on Wavelet Active Media Technology and Information Processing</t>
         </is>
       </c>
-      <c r="F123" t="n">
-        <v>1</v>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -5726,8 +6214,10 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
-        <v>2018</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -5741,7 +6231,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>ethereum,nothing,man in the middle</t>
+          <t>ethereum,man in the middle,nothing</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5749,8 +6239,10 @@
           <t>2018 IEEE 37th Symposium on Reliable Distributed Systems (SRDS)</t>
         </is>
       </c>
-      <c r="F124" t="n">
-        <v>2</v>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -5769,8 +6261,10 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
-        <v>2019</v>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -5792,8 +6286,10 @@
           <t>2019 IEEE/ACM 41st International Conference on Software Engineering: Companion Proceedings (ICSE-Companion)</t>
         </is>
       </c>
-      <c r="F125" t="n">
-        <v>2</v>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -5812,8 +6308,10 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
-        <v>2020</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -5827,7 +6325,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>software test,ethereum,atomicity violation,fuzzer,contract,nothing,gas consumption,vulnerability trigger,fuzzing,security vulnerability</t>
+          <t>security vulnerability,atomicity violation,fuzzer,gas consumption,software test,vulnerability trigger,fuzzing,contract,nothing,ethereum</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5835,8 +6333,10 @@
           <t>IEEE Access</t>
         </is>
       </c>
-      <c r="F126" t="n">
-        <v>0</v>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -5855,8 +6355,10 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
-        <v>2019</v>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -5870,7 +6372,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>proof of work ,block withhold attack,nothing,economics of mine,mining pool,bitcoin</t>
+          <t xml:space="preserve">mine,bitcoin,block withhold attack,economics of mine,nothing,proof of work </t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5878,8 +6380,10 @@
           <t>2019 International Conference on Computing, Networking and Communications (ICNC)</t>
         </is>
       </c>
-      <c r="F127" t="n">
-        <v>1</v>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -5898,8 +6402,10 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
-        <v>2018</v>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -5921,8 +6427,10 @@
           <t>2018 3rd Cloudification of the Internet of Things (CIoT)</t>
         </is>
       </c>
-      <c r="F128" t="n">
-        <v>13</v>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -5941,8 +6449,10 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
-        <v>2019</v>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -5956,7 +6466,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>security analysis,nothing,mining pool,bitcoin</t>
+          <t>bitcoin,security analysis,mine,nothing</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5964,8 +6474,10 @@
           <t>IEEE INFOCOM 2019 - IEEE Conference on Computer Communications Workshops (INFOCOM WKSHPS)</t>
         </is>
       </c>
-      <c r="F129" t="n">
-        <v>1</v>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -5984,8 +6496,10 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
-        <v>2020</v>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -5999,7 +6513,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>blockchain.,crowd-sensing,data report,privacy,nothing,reward mechanism,participatory sense,zksnarks,incentive,bitcoin</t>
+          <t>zksnarks,privacy,reward mechanism,blockchain.,bitcoin,incentive,nothing,data report,crowd-sensing,participatory sense</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -6007,8 +6521,10 @@
           <t>2020 IEEE International Conference on Decentralized Applications and Infrastructures (DAPPS)</t>
         </is>
       </c>
-      <c r="F130" t="n">
-        <v>0</v>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6027,8 +6543,10 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
-        <v>2019</v>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -6042,7 +6560,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>behavior monitor,nothing,sybil attack,digital transaction</t>
+          <t>behavior monitor,digital transaction,attack,nothing</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -6050,8 +6568,10 @@
           <t>2019 10th International Conference on Computing, Communication and Networking Technologies (ICCCNT)</t>
         </is>
       </c>
-      <c r="F131" t="n">
-        <v>0</v>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6070,8 +6590,10 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
-        <v>2018</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -6085,7 +6607,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>membership service provider,nothing,cryptographic attack</t>
+          <t>membership service provider,cryptographic attack,nothing</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -6093,8 +6615,10 @@
           <t>2018 IEEE International Smart Cities Conference (ISC2)</t>
         </is>
       </c>
-      <c r="F132" t="n">
-        <v>4</v>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6113,8 +6637,10 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
-        <v>2019</v>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -6128,7 +6654,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>reward,decentralization,nothing,mine,gap game</t>
+          <t>decentralization,mine,reward,nothing,gap game</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -6136,8 +6662,10 @@
           <t>IEEE Access</t>
         </is>
       </c>
-      <c r="F133" t="n">
-        <v>0</v>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6156,8 +6684,10 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
-        <v>2019</v>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -6171,7 +6701,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>51% attack,nothing,immutability attack</t>
+          <t>immutability attack,attack,nothing</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6179,8 +6709,10 @@
           <t>IEEE Access</t>
         </is>
       </c>
-      <c r="F134" t="n">
-        <v>3</v>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6199,8 +6731,10 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>2020</v>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -6214,7 +6748,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>compromise of the protocol,nothing,blockmesh</t>
+          <t>blockmesh,compromise of the protocol,nothing</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6222,8 +6756,10 @@
           <t>2020 IEEE Conference of Russian Young Researchers in Electrical and Electronic Engineering (EIConRus)</t>
         </is>
       </c>
-      <c r="F135" t="n">
-        <v>0</v>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6242,8 +6778,10 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
-        <v>2019</v>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -6265,8 +6803,10 @@
           <t>2019 20th IEEE International Conference on Mobile Data Management (MDM)</t>
         </is>
       </c>
-      <c r="F136" t="n">
-        <v>1</v>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6285,8 +6825,10 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
-        <v>2019</v>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -6300,7 +6842,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>universal-composability,adaptive-security,distributed-ledger,privacy,nothing,proof-of-stake,zero-knowledge proof</t>
+          <t>adaptive-security,privacy,distributed-ledger,nothing,universal-composability,proof-of-stake,zero-knowledge proof</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6308,8 +6850,10 @@
           <t>2019 IEEE Symposium on Security and Privacy (SP)</t>
         </is>
       </c>
-      <c r="F137" t="n">
-        <v>2</v>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6328,8 +6872,10 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
-        <v>2020</v>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -6343,7 +6889,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>nothing,secure element,trust</t>
+          <t>trust,nothing</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6351,8 +6897,10 @@
           <t>2020 IEEE International Conference on Blockchain and Cryptocurrency (ICBC)</t>
         </is>
       </c>
-      <c r="F138" t="n">
-        <v>0</v>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6371,8 +6919,10 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
-        <v>2018</v>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -6386,7 +6936,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>internet of things,goldfinger attack,nothing,statistical significance,intrusion detection</t>
+          <t>intrusion detection,goldfinger attack,internet of things,statistical significance,nothing</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6394,8 +6944,10 @@
           <t>2018 Tenth International Conference on Advanced Computing (ICoAC)</t>
         </is>
       </c>
-      <c r="F139" t="n">
-        <v>2</v>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -6414,8 +6966,10 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
-        <v>2020</v>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -6429,7 +6983,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>network model,nothing,consensus security</t>
+          <t>network model,consensus security,nothing</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6437,8 +6991,10 @@
           <t>IEEE INFOCOM 2020 - IEEE Conference on Computer Communications</t>
         </is>
       </c>
-      <c r="F140" t="n">
-        <v>0</v>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -6457,8 +7013,10 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
-        <v>2020</v>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -6472,7 +7030,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>contract,consensus,security framework,nothing,vulnerability,threat</t>
+          <t>security framework,nothing,contract,consensus protocol,threat</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6480,8 +7038,10 @@
           <t>2020 First International Conference on Power, Control and Computing Technologies (ICPC2T)</t>
         </is>
       </c>
-      <c r="F141" t="n">
-        <v>0</v>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -6500,8 +7060,10 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
-        <v>2017</v>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -6515,7 +7077,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>distributed ledger,blockchain security,cloud compute,data provenance,pool mine,nothing,vulnerability,proof-of-work,block mine,block withhold</t>
+          <t>cloud compute,pool mine,data provenance,block mine,nothing,consensus protocol,blockchain security,block withhold</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6523,8 +7085,10 @@
           <t>2017 17th IEEE/ACM International Symposium on Cluster, Cloud and Grid Computing (CCGRID)</t>
         </is>
       </c>
-      <c r="F142" t="n">
-        <v>37</v>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -6543,8 +7107,10 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
-        <v>2015</v>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -6558,7 +7124,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>tor,peer-to-peer,cryptocurrency,nothing,anonymity,bitcoin</t>
+          <t>tor,anonymity,network,cryptocurrency,bitcoin,nothing</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6566,8 +7132,10 @@
           <t>2015 IEEE Symposium on Security and Privacy</t>
         </is>
       </c>
-      <c r="F143" t="n">
-        <v>45</v>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -6586,8 +7154,10 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
-        <v>2019</v>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -6601,7 +7171,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>ethereum,contract,fuzz test,nothing,system architecture,security vulnerability</t>
+          <t>security vulnerability,fuzz test,system architecture,contract,nothing,ethereum</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6609,8 +7179,10 @@
           <t>2019 IEEE 19th International Conference on Software Quality, Reliability and Security Companion (QRS-C)</t>
         </is>
       </c>
-      <c r="F144" t="n">
-        <v>1</v>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -6629,8 +7201,10 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
-        <v>2019</v>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -6644,7 +7218,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>nothing,cyber-physical system</t>
+          <t>cyber-physical system,nothing</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6652,8 +7226,10 @@
           <t>2019 24th IEEE International Conference on Emerging Technologies and Factory Automation (ETFA)</t>
         </is>
       </c>
-      <c r="F145" t="n">
-        <v>0</v>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -6672,8 +7248,10 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
-        <v>2018</v>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -6687,7 +7265,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>risk assessment,nothing,threat</t>
+          <t>risk assessment,threat,nothing</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6695,8 +7273,10 @@
           <t>2018 Eighth Latin-American Symposium on Dependable Computing (LADC)</t>
         </is>
       </c>
-      <c r="F146" t="n">
-        <v>0</v>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -6715,8 +7295,10 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
-        <v>2019</v>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -6730,7 +7312,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>nothing,performance,fork</t>
+          <t>performance,fork,nothing</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6738,8 +7320,10 @@
           <t>2019 IEEE 35th International Conference on Data Engineering Workshops (ICDEW)</t>
         </is>
       </c>
-      <c r="F147" t="n">
-        <v>1</v>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -6758,8 +7342,10 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
-        <v>2019</v>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -6773,7 +7359,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>replicator dynamic,block withhold attack,evolutionary game theory,nothing,mine pool selection,proof-of-work</t>
+          <t>mine pool selection,evolutionary game theory,nothing,block withhold attack,consensus protocol,replicator dynamic</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6781,8 +7367,10 @@
           <t>IEEE Access</t>
         </is>
       </c>
-      <c r="F148" t="n">
-        <v>1</v>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -6801,8 +7389,10 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
-        <v>2019</v>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -6816,7 +7406,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>protocol,triangle attack,trace analysis</t>
+          <t>protocol,trace analysis,triangle attack</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6824,8 +7414,10 @@
           <t>2019 IEEE 19th International Conference on Software Quality, Reliability and Security Companion (QRS-C)</t>
         </is>
       </c>
-      <c r="F149" t="n">
-        <v>0</v>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -6844,8 +7436,10 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
-        <v>2019</v>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -6859,7 +7453,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>nothing,secure element,trust</t>
+          <t>trust,nothing</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6867,8 +7461,10 @@
           <t>2019 16th IEEE Annual Consumer Communications &amp; Networking Conference (CCNC)</t>
         </is>
       </c>
-      <c r="F150" t="n">
-        <v>3</v>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -6887,8 +7483,10 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
-        <v>2019</v>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -6902,7 +7500,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>privacy,nothing,bitcoin,cryptocurrency</t>
+          <t>bitcoin,cryptocurrency,privacy,nothing</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6910,8 +7508,10 @@
           <t>2019 2nd International Conference on Intelligent Computing, Instrumentation and Control Technologies (ICICICT)</t>
         </is>
       </c>
-      <c r="F151" t="n">
-        <v>0</v>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -6930,8 +7530,10 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
-        <v>2018</v>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -6945,7 +7547,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>privacy,nothing,smart city,mobile healthcare</t>
+          <t>privacy,smart city,mobile healthcare,nothing</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6953,8 +7555,10 @@
           <t>2018 IEEE International Smart Cities Conference (ISC2)</t>
         </is>
       </c>
-      <c r="F152" t="n">
-        <v>4</v>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -6973,8 +7577,10 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
-        <v>2020</v>
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -6988,7 +7594,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>industrial internet of thing privacy,privacy,nothing,industrial internet of thing security</t>
+          <t>privacy,industrial internet of thing privacy,industrial internet of thing security,nothing</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6996,8 +7602,10 @@
           <t>IEEE Transactions on Industrial Informatics</t>
         </is>
       </c>
-      <c r="F153" t="n">
-        <v>1</v>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr">
@@ -7012,8 +7620,10 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
-        <v>2018</v>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -7027,7 +7637,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>nothing,secure element,racs</t>
+          <t>racs,nothing</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -7035,8 +7645,10 @@
           <t>2018 Fourth International Conference on Mobile and Secure Services (MobiSecServ)</t>
         </is>
       </c>
-      <c r="F154" t="n">
-        <v>4</v>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7055,8 +7667,10 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
-        <v>2018</v>
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -7070,7 +7684,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>51% attack,nothing</t>
+          <t>attack,nothing</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -7078,8 +7692,10 @@
           <t>2018 5th International Conference on Dependable Systems and Their Applications (DSA)</t>
         </is>
       </c>
-      <c r="F155" t="n">
-        <v>8</v>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7098,8 +7714,10 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n">
-        <v>2019</v>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -7113,7 +7731,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>social engineer,phishing,cryptocurrency,nothing,malware</t>
+          <t>phishing,social engineer,malware,cryptocurrency,nothing</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -7121,8 +7739,10 @@
           <t>2019 International Conference on Engineering Technologies and Computer Science (EnT)</t>
         </is>
       </c>
-      <c r="F156" t="n">
-        <v>2</v>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7141,8 +7761,10 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
-        <v>2017</v>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -7156,7 +7778,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>distributed ledger,immutability,defence application,supply chain,consensus,network center operation,contract,cryptography,nothing,peer-to-peer network ,battlefield management system ,logistics,digital signature</t>
+          <t>immutability,logistics,network center operation,battlefield management system ,consensus protocol,nothing,defence application,peer-to-peer network ,contract,supply chain,cryptography</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -7164,8 +7786,10 @@
           <t>2017 International Conference on Intelligent Sustainable Systems (ICISS)</t>
         </is>
       </c>
-      <c r="F157" t="n">
-        <v>4</v>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7184,8 +7808,10 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
-        <v>2020</v>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -7199,7 +7825,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>theorem prove,nothing,distribute system,verification</t>
+          <t>formal approach,theorem prove,distribute system,nothing</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -7207,8 +7833,10 @@
           <t>IEEE Access</t>
         </is>
       </c>
-      <c r="F158" t="n">
-        <v>0</v>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7227,8 +7855,10 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
-        <v>2018</v>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -7242,7 +7872,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>law,distributed ledger,cloud compute,service,nothing,governance,trust</t>
+          <t>cloud compute,governance,trust,law,nothing,service</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7250,8 +7880,10 @@
           <t>2018 IEEE European Symposium on Security and Privacy Workshops (EuroS&amp;PW)</t>
         </is>
       </c>
-      <c r="F159" t="n">
-        <v>4</v>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7270,8 +7902,10 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
-        <v>2019</v>
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -7285,7 +7919,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>polynomial,cryptography,nothing</t>
+          <t>cryptography,polynomial,nothing</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7293,8 +7927,10 @@
           <t>2019 IEEE Conference on Communications and Network Security (CNS)</t>
         </is>
       </c>
-      <c r="F160" t="n">
-        <v>0</v>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -7313,8 +7949,10 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
-        <v>2019</v>
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -7328,7 +7966,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>sharding,genetic algorithm,fault tolerant,malicious attack,nothing,trust</t>
+          <t>genetic algorithm,sharding,fault tolerant,malicious attack,trust,nothing</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7336,8 +7974,10 @@
           <t>IEEE Access</t>
         </is>
       </c>
-      <c r="F161" t="n">
-        <v>0</v>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -7356,8 +7996,10 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
-        <v>2018</v>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -7371,7 +8013,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>logic risk location,contract,topologicalanalysis,nothing,security assurance</t>
+          <t>logic risk location,topologicalanalysis,security assurance,contract,nothing</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7379,8 +8021,10 @@
           <t>2018 9th IFIP International Conference on New Technologies, Mobility and Security (NTMS)</t>
         </is>
       </c>
-      <c r="F162" t="n">
-        <v>7</v>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -7399,8 +8043,10 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
-        <v>2019</v>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -7414,7 +8060,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>insider threat,nothing,trust management,collaborative intrusion detection</t>
+          <t>insider threat,collaborative intrusion detection,trust management,nothing</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7422,8 +8068,10 @@
           <t>2019 IEEE World Congress on Services (SERVICES)</t>
         </is>
       </c>
-      <c r="F163" t="n">
-        <v>0</v>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -7442,8 +8090,10 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n">
-        <v>2019</v>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -7457,7 +8107,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>privacy solution,security issue,security solution,consensus,nothing,technology,privacy issue</t>
+          <t>privacy issue,security solution,consensus protocol,security issue,privacy solution,nothing,technology</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7465,8 +8115,10 @@
           <t>2019 IEEE/ACS 16th International Conference on Computer Systems and Applications (AICCSA)</t>
         </is>
       </c>
-      <c r="F164" t="n">
-        <v>0</v>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -7485,8 +8137,10 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="n">
-        <v>2019</v>
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -7500,7 +8154,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>internet of things,nothing,wireless security</t>
+          <t>wireless security,internet of things,nothing</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -7508,8 +8162,10 @@
           <t>2019 10th International Conference on Computing, Communication and Networking Technologies (ICCCNT)</t>
         </is>
       </c>
-      <c r="F165" t="n">
-        <v>0</v>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -7528,8 +8184,10 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="n">
-        <v>2018</v>
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -7543,7 +8201,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>distributed ledger,decentralize,information security,nothing,timestamp</t>
+          <t>timestamp,decentralize,nothing</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7551,8 +8209,10 @@
           <t>2018 IEEE 3rd International Conference on Cloud Computing and Big Data Analysis (ICCCBDA)</t>
         </is>
       </c>
-      <c r="F166" t="n">
-        <v>5</v>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -7571,8 +8231,10 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="n">
-        <v>2018</v>
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -7586,7 +8248,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>ethereum,dapp,architecture,contract,fuzz test,nothing,security vulnerability</t>
+          <t>security vulnerability,dapp,fuzz test,contract,nothing,ethereum</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7594,8 +8256,10 @@
           <t>2018 25th Asia-Pacific Software Engineering Conference (APSEC)</t>
         </is>
       </c>
-      <c r="F167" t="n">
-        <v>3</v>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -7614,8 +8278,10 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
-        <v>2019</v>
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -7629,7 +8295,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>privacy,nothing,industrial internet of thing,time-based zero knowledge proof of knowledge</t>
+          <t>privacy,time-based zero knowledge proof of knowledge,industrial internet of thing,nothing</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7637,8 +8303,10 @@
           <t>2019 IEEE 39th International Conference on Distributed Computing Systems (ICDCS)</t>
         </is>
       </c>
-      <c r="F168" t="n">
-        <v>2</v>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -7657,8 +8325,10 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
-        <v>2020</v>
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -7672,7 +8342,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>scalability,test,contract,consensus,nothing</t>
+          <t>scalability,nothing,contract,consensus protocol,test</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7680,8 +8350,10 @@
           <t>2020 International Conference for Emerging Technology (INCET)</t>
         </is>
       </c>
-      <c r="F169" t="n">
-        <v>0</v>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -7700,8 +8372,10 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
-        <v>2019</v>
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -7715,7 +8389,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>nothing,game,architecture</t>
+          <t>game,nothing</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7723,8 +8397,10 @@
           <t>2019 IEEE Games, Entertainment, Media Conference (GEM)</t>
         </is>
       </c>
-      <c r="F170" t="n">
-        <v>1</v>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -7743,8 +8419,10 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
-        <v>2018</v>
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -7758,7 +8436,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>proof-of-stake,nothing,attack</t>
+          <t>proof-of-stake,attack,nothing</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7766,8 +8444,10 @@
           <t>2018 Crypto Valley Conference on Blockchain Technology (CVCBT)</t>
         </is>
       </c>
-      <c r="F171" t="n">
-        <v>5</v>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -7786,8 +8466,10 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
-        <v>2019</v>
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -7801,7 +8483,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>energy transaction,channel,information security,microgrid,network</t>
+          <t>energy transaction,network,channel,nothing,microgrid</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7809,8 +8491,10 @@
           <t>2019 IEEE PES Asia-Pacific Power and Energy Engineering Conference (APPEEC)</t>
         </is>
       </c>
-      <c r="F172" t="n">
-        <v>0</v>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -7829,8 +8513,10 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
-        <v>2019</v>
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -7852,8 +8538,10 @@
           <t>2019 IEEE 4th Advanced Information Technology, Electronic and Automation Control Conference (IAEAC)</t>
         </is>
       </c>
-      <c r="F173" t="n">
-        <v>0</v>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -7872,8 +8560,10 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
-        <v>2018</v>
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -7887,7 +8577,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>nothing,challenge,architecture,future scope</t>
+          <t>future scope,challenge,nothing</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7895,8 +8585,10 @@
           <t>2018 3rd International Conference on Inventive Computation Technologies (ICICT)</t>
         </is>
       </c>
-      <c r="F174" t="n">
-        <v>0</v>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -7915,8 +8607,10 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
-        <v>2018</v>
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -7930,7 +8624,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>financial system,maker-checker,security architecture,nothing,internal attack,integrity</t>
+          <t>integrity,security architecture,internal attack,financial system,nothing,maker-checker</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7938,8 +8632,10 @@
           <t>2018 IEEE International Conference on Internet of Things (iThings) and IEEE Green Computing and Communications (GreenCom) and IEEE Cyber, Physical and Social Computing (CPSCom) and IEEE Smart Data (SmartData)</t>
         </is>
       </c>
-      <c r="F175" t="n">
-        <v>0</v>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -7958,8 +8654,10 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
-        <v>2018</v>
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -7973,7 +8671,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>internet of things,privacy,nothing,authentication</t>
+          <t>privacy,internet of things,authentication,nothing</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7981,8 +8679,10 @@
           <t>2018 5th International Conference on Networking, Systems and Security (NSysS)</t>
         </is>
       </c>
-      <c r="F176" t="n">
-        <v>4</v>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8001,8 +8701,10 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
-        <v>2019</v>
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -8016,7 +8718,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>ethereum,nothing,decompilation,program analysis</t>
+          <t>program analysis,decompilation,ethereum,nothing</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -8024,8 +8726,10 @@
           <t>2019 IEEE/ACM 41st International Conference on Software Engineering (ICSE)</t>
         </is>
       </c>
-      <c r="F177" t="n">
-        <v>2</v>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8044,8 +8748,10 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
-        <v>2020</v>
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -8059,7 +8765,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>ethereum,dapp,contract,vulnerability,attack technique</t>
+          <t>attack technique,dapp,contract,nothing,ethereum</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -8067,8 +8773,10 @@
           <t>IEEE Access</t>
         </is>
       </c>
-      <c r="F178" t="n">
-        <v>1</v>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8087,8 +8795,10 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
-        <v>2020</v>
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -8102,7 +8812,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>double-spending attack,carrier sense multiple access/collision avoidance ,consensus,direct acyclic graph,industrial internet of thing,network</t>
+          <t>carrier sense multiple access/collision avoidance ,network,industrial internet of thing,consensus protocol,double-spending attack,direct acyclic graph</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -8110,8 +8820,10 @@
           <t>IEEE Transactions on Industrial Informatics</t>
         </is>
       </c>
-      <c r="F179" t="n">
-        <v>3</v>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8130,8 +8842,10 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
-        <v>2019</v>
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -8145,7 +8859,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>cybersecurity vulnerability assessment,cyber risk mitigation,cybersecurity framework,nothing,criterion rank</t>
+          <t>cybersecurity vulnerability assessment,criterion rank,nothing,cyber risk mitigation,cybersecurity framework</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -8153,8 +8867,10 @@
           <t>2019 IEEE 9th Annual Computing and Communication Workshop and Conference (CCWC)</t>
         </is>
       </c>
-      <c r="F180" t="n">
-        <v>2</v>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8173,8 +8889,10 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
-        <v>2020</v>
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -8188,7 +8906,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>security analysis,sharding,nothing,failure probability,hypergeometric distribution</t>
+          <t>sharding,failure probability,nothing,security analysis,hypergeometric distribution</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -8196,8 +8914,10 @@
           <t>IEEE Access</t>
         </is>
       </c>
-      <c r="F181" t="n">
-        <v>0</v>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -8216,8 +8936,10 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
-        <v>2019</v>
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -8231,7 +8953,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>access control list,pki system,service,nothing,archiecture,data privacy</t>
+          <t>archiecture,data privacy,pki system,nothing,access control list,service</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8239,8 +8961,10 @@
           <t>2019 International Conference on Computing, Communication, and Intelligent Systems (ICCCIS)</t>
         </is>
       </c>
-      <c r="F182" t="n">
-        <v>2</v>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -8259,8 +8983,10 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
-        <v>2019</v>
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -8274,7 +9000,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>51% attack,nothing,cryptocurrency,share scheme</t>
+          <t>share scheme,cryptocurrency,attack,nothing</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8282,8 +9008,10 @@
           <t>2019 IEEE International Conference on Cloud Computing Technology and Science (CloudCom)</t>
         </is>
       </c>
-      <c r="F183" t="n">
-        <v>2</v>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -8302,8 +9030,10 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
-        <v>2019</v>
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -8317,7 +9047,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t xml:space="preserve">distributed ledger,nothing,internet-of-things </t>
+          <t>internet-of-things ,nothing</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -8325,8 +9055,10 @@
           <t>2019 International Conference on Computer and Information Sciences (ICCIS)</t>
         </is>
       </c>
-      <c r="F184" t="n">
-        <v>2</v>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -8345,8 +9077,10 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
-        <v>2018</v>
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -8360,7 +9094,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>cybercrime,nothing,cyberterrorism,cryptocurrency</t>
+          <t>cyberterrorism,cybercrime,cryptocurrency,nothing</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8368,8 +9102,10 @@
           <t>2018 IEEE 18th International Symposium on Computational Intelligence and Informatics (CINTI)</t>
         </is>
       </c>
-      <c r="F185" t="n">
-        <v>0</v>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -8388,8 +9124,10 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
-        <v>2020</v>
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -8403,7 +9141,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>dynamic difficulty factor,fork attack,nothing,mtc confirmation mechanism</t>
+          <t>fork attack,mtc confirmation mechanism,dynamic difficulty factor,nothing</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8411,8 +9149,10 @@
           <t>IEEE Access</t>
         </is>
       </c>
-      <c r="F186" t="n">
-        <v>0</v>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -8431,8 +9171,10 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
-        <v>2018</v>
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -8446,7 +9188,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>internet of things,privacy,nothing,iot security</t>
+          <t>privacy,internet of things,iot security,nothing</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8454,8 +9196,10 @@
           <t>2018 Fourth International Conference on Advances in Computing, Communication &amp; Automation (ICACCA)</t>
         </is>
       </c>
-      <c r="F187" t="n">
-        <v>1</v>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -8474,8 +9218,10 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
-        <v>2019</v>
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -8489,7 +9235,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>nothing,challenge,adoption</t>
+          <t>adoption,challenge,nothing</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8497,8 +9243,10 @@
           <t>2019 4th International Conference on Emerging Trends in Engineering, Sciences and Technology (ICEEST)</t>
         </is>
       </c>
-      <c r="F188" t="n">
-        <v>0</v>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -8517,8 +9265,10 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
-        <v>2020</v>
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -8532,7 +9282,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>information security,control,nothing,organisation.,goal</t>
+          <t>control,organisation.,goal,nothing</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8540,8 +9290,10 @@
           <t>2020 International Conference on Information Technologies (InfoTech)</t>
         </is>
       </c>
-      <c r="F189" t="n">
-        <v>0</v>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -8560,8 +9312,10 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
-        <v>2018</v>
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -8575,7 +9329,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>,distributed ledger,internet of thing ,nothing,adaptive</t>
+          <t>,adaptive,internet of thing ,nothing</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8583,8 +9337,10 @@
           <t>2018 21st Saudi Computer Society National Computer Conference (NCC)</t>
         </is>
       </c>
-      <c r="F190" t="n">
-        <v>2</v>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -8603,8 +9359,10 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="n">
-        <v>2020</v>
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -8618,7 +9376,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>control,nothing,complexity,measurement</t>
+          <t>control,measurement,complexity,nothing</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8626,8 +9384,10 @@
           <t>2020 International Conference on Information Technologies (InfoTech)</t>
         </is>
       </c>
-      <c r="F191" t="n">
-        <v>0</v>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -8646,8 +9406,10 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="n">
-        <v>2020</v>
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -8661,7 +9423,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>privacy,nothing,information technology,application,threat</t>
+          <t>privacy,application,information technology,nothing,threat</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8669,8 +9431,10 @@
           <t>2020 IEEE 15th International Conference on Advanced Trends in Radioelectronics, Telecommunications and Computer Engineering (TCSET)</t>
         </is>
       </c>
-      <c r="F192" t="n">
-        <v>0</v>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -8689,8 +9453,10 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
-        <v>2019</v>
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -8704,7 +9470,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>internet of things,hash function,shv-secured hash value,cryptography,nothing,block,attack,digital signature</t>
+          <t>attack,nothing,internet of things,shv-secured hash value,cryptography,block</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8712,8 +9478,10 @@
           <t>2019 2nd International Conference on Intelligent Computing, Instrumentation and Control Technologies (ICICICT)</t>
         </is>
       </c>
-      <c r="F193" t="n">
-        <v>4</v>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -8732,8 +9500,10 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
-        <v>2020</v>
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -8747,7 +9517,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>stablecoin,defi,nothing,risk management</t>
+          <t>risk management,stablecoin,defi,nothing</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8755,8 +9525,10 @@
           <t>2020 2nd Conference on Blockchain Research &amp; Applications for Innovative Networks and Services (BRAINS)</t>
         </is>
       </c>
-      <c r="F194" t="n">
-        <v>0</v>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -8775,8 +9547,10 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n">
-        <v>2019</v>
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -8790,7 +9564,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>ethereum,software engineer,contract,information security,nothing,software lifecycle</t>
+          <t>software lifecycle,software engineer,contract,nothing,ethereum</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8798,8 +9572,10 @@
           <t>IEEE Access</t>
         </is>
       </c>
-      <c r="F195" t="n">
-        <v>3</v>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -8818,8 +9594,10 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n">
-        <v>2019</v>
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -8833,7 +9611,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>vulnerability detection,static analysis,contract,solidity,nothing</t>
+          <t>solidity,contract,nothing,static analysis,vulnerability detection</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8841,8 +9619,10 @@
           <t>2019 IEEE/ACM 2nd International Workshop on Emerging Trends in Software Engineering for Blockchain (WETSEB)</t>
         </is>
       </c>
-      <c r="F196" t="n">
-        <v>10</v>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -8861,8 +9641,10 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
-        <v>2019</v>
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -8876,7 +9658,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>bitcoin,wallet,cryptocurrency,nothing,authentication</t>
+          <t>authentication,cryptocurrency,bitcoin,nothing,wallet</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8884,8 +9666,10 @@
           <t>2019 International Conference on Robotics,Electrical and Signal Processing Techniques (ICREST)</t>
         </is>
       </c>
-      <c r="F197" t="n">
-        <v>0</v>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -8904,8 +9688,10 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
-        <v>2019</v>
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -8919,7 +9705,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>fuzz test,machine learning,contract,vulnerability</t>
+          <t>fuzz test,machine learning,contract,nothing</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8927,8 +9713,10 @@
           <t>2019 Sixth International Conference on Internet of Things: Systems, Management and Security (IOTSMS)</t>
         </is>
       </c>
-      <c r="F198" t="n">
-        <v>1</v>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -8947,8 +9735,10 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
-        <v>2020</v>
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -8962,7 +9752,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>proof-of-work,double-spend attack,nothing,mine</t>
+          <t>double-spend attack,mine,consensus protocol,nothing</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8970,8 +9760,10 @@
           <t>IEEE Transactions on Industrial Informatics</t>
         </is>
       </c>
-      <c r="F199" t="n">
-        <v>0</v>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -8990,8 +9782,10 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="n">
-        <v>2018</v>
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -9005,7 +9799,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>,cryptocurrency,replay attack,nothing,iota,security exploitation</t>
+          <t>,replay attack,security exploitation,cryptocurrency,iota,nothing</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -9013,8 +9807,10 @@
           <t>2018 IEEE Globecom Workshops (GC Wkshps)</t>
         </is>
       </c>
-      <c r="F200" t="n">
-        <v>0</v>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9033,8 +9829,10 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="n">
-        <v>2018</v>
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -9048,7 +9846,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>ethereum,fuzzer,contract,nothing,vulnerability,fuzzing,test oracle</t>
+          <t>fuzzer,fuzzing,test oracle,contract,nothing,ethereum</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -9056,8 +9854,10 @@
           <t>2018 33rd IEEE/ACM International Conference on Automated Software Engineering (ASE)</t>
         </is>
       </c>
-      <c r="F201" t="n">
-        <v>12</v>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -9076,8 +9876,10 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="n">
-        <v>2019</v>
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -9091,7 +9893,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>ethereum,contract,solidity,vulnerability,fasle positive</t>
+          <t>solidity,fasle positive,contract,nothing,ethereum</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -9099,8 +9901,10 @@
           <t>2019 IEEE International Conference on Software Testing, Verification and Validation Workshops (ICSTW)</t>
         </is>
       </c>
-      <c r="F202" t="n">
-        <v>0</v>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -9119,8 +9923,10 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="n">
-        <v>2019</v>
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -9134,7 +9940,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>peer-to-peer,ethereum,nothing,eclipse-attack</t>
+          <t>network,ethereum,eclipse-attack,nothing</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -9142,8 +9948,10 @@
           <t>2019 IEEE European Symposium on Security and Privacy Workshops (EuroS&amp;PW)</t>
         </is>
       </c>
-      <c r="F203" t="n">
-        <v>1</v>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -9162,8 +9970,10 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
-        <v>2019</v>
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -9177,7 +9987,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>internet of things,ethereum,transaction,fpga,prototype,nothing,embed system,protocol</t>
+          <t>ethereum,protocol,embed system,internet of things,transaction,nothing,fpga,prototype</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -9185,8 +9995,10 @@
           <t>2019 IEEE 16th International Conference on Mobile Ad Hoc and Sensor Systems (MASS)</t>
         </is>
       </c>
-      <c r="F204" t="n">
-        <v>0</v>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -9205,8 +10017,10 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="n">
-        <v>2020</v>
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -9220,7 +10034,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>sybil attack,wireless network,internet of thing ,byzantine fault-tolerant ,nothing,real-time consensus</t>
+          <t>attack,real-time consensus,internet of thing ,byzantine fault-tolerant ,nothing,wireless network</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -9228,8 +10042,10 @@
           <t>IEEE Internet of Things Journal</t>
         </is>
       </c>
-      <c r="F205" t="n">
-        <v>0</v>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -9248,8 +10064,10 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="n">
-        <v>2019</v>
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -9263,7 +10081,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>internet of things,distributed ledger,cyber risk,emerge technology,nothing,risk,artificial intelligence</t>
+          <t>emerge technology,cyber risk,risk,artificial intelligence,internet of things,nothing</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -9271,8 +10089,10 @@
           <t>2019 IEEE Technology &amp; Engineering Management Conference (TEMSCON)</t>
         </is>
       </c>
-      <c r="F206" t="n">
-        <v>0</v>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -9291,8 +10111,10 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="n">
-        <v>2019</v>
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -9306,7 +10128,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>nothing,consensus,double spend attack,bitcoin</t>
+          <t>bitcoin,attack,consensus protocol,nothing</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9314,8 +10136,10 @@
           <t>IEEE INFOCOM 2019 - IEEE Conference on Computer Communications Workshops (INFOCOM WKSHPS)</t>
         </is>
       </c>
-      <c r="F207" t="n">
-        <v>0</v>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -9334,8 +10158,10 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="n">
-        <v>2019</v>
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -9349,7 +10175,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>security.,nothing,wban</t>
+          <t>security.,wban,nothing</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -9357,8 +10183,10 @@
           <t>2019 International Conference on Computing, Communication, and Intelligent Systems (ICCCIS)</t>
         </is>
       </c>
-      <c r="F208" t="n">
-        <v>1</v>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -9377,8 +10205,10 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="n">
-        <v>2019</v>
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -9392,7 +10222,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>internet of things,hash,cyber attack,contract,cryptography,proof-of-work,nothing,peer-to-peer,immutable</t>
+          <t>attack,network,consensus protocol,nothing,internet of things,contract,cryptography,hash,immutable</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9400,8 +10230,10 @@
           <t>2019 6th International Conference on Computing for Sustainable Global Development (INDIACom)</t>
         </is>
       </c>
-      <c r="F209" t="n">
-        <v>0</v>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -9420,8 +10252,10 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
-        <v>2019</v>
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -9435,7 +10269,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>invalid curve attack,openssl,singular curve,fault attack,supersingular curve,embed security</t>
+          <t>openssl,fault attack,invalid curve attack,embed security,singular curve,supersingular curve</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9443,8 +10277,10 @@
           <t>2019 IEEE European Symposium on Security and Privacy (EuroS&amp;P)</t>
         </is>
       </c>
-      <c r="F210" t="n">
-        <v>1</v>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -9463,8 +10299,10 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
-        <v>2019</v>
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -9478,7 +10316,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>consensus,nothing,hardware,blockchain;-privacy,distributed-ledger</t>
+          <t>blockchain;-privacy,distributed-ledger,nothing,consensus protocol,hardware</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9486,8 +10324,10 @@
           <t>2019 IEEE International Symposium on Smart Electronic Systems (iSES) (Formerly iNiS)</t>
         </is>
       </c>
-      <c r="F211" t="n">
-        <v>0</v>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -9506,8 +10346,10 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
-        <v>2020</v>
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -9521,7 +10363,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t xml:space="preserve">privacy,nothing,distribute ledger technology ,internet of thing </t>
+          <t>privacy,distribute ledger technology ,internet of thing ,nothing</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -9529,8 +10371,10 @@
           <t>2020 11th International Conference on Computing, Communication and Networking Technologies (ICCCNT)</t>
         </is>
       </c>
-      <c r="F212" t="n">
-        <v>0</v>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -9549,8 +10393,10 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
-        <v>2020</v>
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -9564,7 +10410,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t xml:space="preserve">smart contract ,peer-to-peer ,consensus,decentralization,cryptocurrency,cryptography,nothing,block chain </t>
+          <t xml:space="preserve">block chain ,decentralization,peer-to-peer ,cryptocurrency,consensus protocol,nothing,cryptography,smart contract </t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -9572,8 +10418,10 @@
           <t>2020 3rd International Conference on Advanced Communication Technologies and Networking (CommNet)</t>
         </is>
       </c>
-      <c r="F213" t="n">
-        <v>0</v>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -9592,8 +10440,10 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
-        <v>2019</v>
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -9607,7 +10457,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>nothing,protocol security,consensus,censorship attack</t>
+          <t>censorship attack,protocol security,consensus protocol,nothing</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9615,8 +10465,10 @@
           <t>2019 IEEE International Conference on Industrial Cyber Physical Systems (ICPS)</t>
         </is>
       </c>
-      <c r="F214" t="n">
-        <v>0</v>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -9635,8 +10487,10 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
-        <v>2019</v>
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -9650,7 +10504,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>nothing,contract,security smell,program analysis</t>
+          <t>program analysis,contract,security smell,nothing</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -9658,8 +10512,10 @@
           <t>2019 IEEE 19th International Conference on Software Quality, Reliability and Security Companion (QRS-C)</t>
         </is>
       </c>
-      <c r="F215" t="n">
-        <v>3</v>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -9678,8 +10534,10 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
-        <v>2019</v>
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -9693,7 +10551,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>ethereum,nothing,contract,formal verification</t>
+          <t>ethereum,contract,formal approach,nothing</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -9701,8 +10559,10 @@
           <t>2019 5th International Conference on Big Data Computing and Communications (BIGCOM)</t>
         </is>
       </c>
-      <c r="F216" t="n">
-        <v>0</v>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -9721,8 +10581,10 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
-        <v>2019</v>
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -9736,7 +10598,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>ethereum,contract,cryptocurrency,interoperable-blockchains,nothing,game theory,double spend attack,attack</t>
+          <t>attack,interoperable-blockchains,cryptocurrency,game theory,contract,nothing,ethereum</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9744,8 +10606,10 @@
           <t>2019 First IEEE International Conference on Trust, Privacy and Security in Intelligent Systems and Applications (TPS-ISA)</t>
         </is>
       </c>
-      <c r="F217" t="n">
-        <v>0</v>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -9764,8 +10628,10 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
-        <v>2019</v>
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -9779,7 +10645,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>ssdf attack,spectrum sense,consensus,nothing,double threshold energy detection</t>
+          <t>spectrum sense,nothing,double threshold energy detection,ssdf attack,consensus protocol</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9787,8 +10653,10 @@
           <t>2019 3rd International Conference on Electronic Information Technology and Computer Engineering (EITCE)</t>
         </is>
       </c>
-      <c r="F218" t="n">
-        <v>0</v>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -9807,8 +10675,10 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
-        <v>2019</v>
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -9822,7 +10692,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>nothing,smartphone application,cryptocurrency,owasp mobile</t>
+          <t>smartphone application,owasp mobile,cryptocurrency,nothing</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9830,8 +10700,10 @@
           <t>2019 Fifth Conference on Mobile and Secure Services (MobiSecServ)</t>
         </is>
       </c>
-      <c r="F219" t="n">
-        <v>1</v>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -9850,8 +10722,10 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
-        <v>2020</v>
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -9865,7 +10739,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>nothing,contract,verification,formal method</t>
+          <t>contract,formal approach,nothing</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9873,8 +10747,10 @@
           <t>Computers &amp; Security</t>
         </is>
       </c>
-      <c r="F220" t="n">
-        <v>9</v>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -9893,8 +10769,10 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
-        <v>2020</v>
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -9908,7 +10786,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>,ethereum,ripple,algor,hyperledger,00-01,hash,contract,consensus,cryptography,nothing,attack,iota,vulnerability,tangle,trust,bitcoin</t>
+          <t>,tangle,attack,trust,hyperledger,consensus protocol,bitcoin,ripple,contract,iota,nothing,hash,cryptography,ethereum,algor,00-01</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9916,8 +10794,10 @@
           <t>Future Generation Computer Systems</t>
         </is>
       </c>
-      <c r="F221" t="n">
-        <v>1</v>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -9936,8 +10816,10 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="n">
-        <v>2020</v>
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -9951,7 +10833,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>distributed ledger,security.,digital currency,consensus,contract,cryptocurrency,decentralization,nothing</t>
+          <t>decentralization,security.,cryptocurrency,nothing,contract,consensus protocol,digital currency</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9959,8 +10841,10 @@
           <t>Journal of Network and Computer Applications</t>
         </is>
       </c>
-      <c r="F222" t="n">
-        <v>2</v>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -9979,8 +10863,10 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="n">
-        <v>2019</v>
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -9994,7 +10880,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>audit log,nothing,distribute system</t>
+          <t>audit log,distribute system,nothing</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -10002,8 +10888,10 @@
           <t>Journal of Network and Computer Applications</t>
         </is>
       </c>
-      <c r="F223" t="n">
-        <v>0</v>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -10022,8 +10910,10 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="n">
-        <v>2020</v>
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -10037,7 +10927,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>contract,nothing,vulnerability,input filter,protection</t>
+          <t>protection,input filter,contract,nothing</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -10045,8 +10935,10 @@
           <t>Journal of Network and Computer Applications</t>
         </is>
       </c>
-      <c r="F224" t="n">
-        <v>1</v>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -10065,8 +10957,10 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="n">
-        <v>2019</v>
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -10080,7 +10974,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>debit card,bitcoin,user perception,trade-off,nothing,usability,credit</t>
+          <t>trade-off,credit,user perception,bitcoin,nothing,debit card,usability</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -10088,8 +10982,10 @@
           <t>International Journal of Human-Computer Studies</t>
         </is>
       </c>
-      <c r="F225" t="n">
-        <v>9</v>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -10108,8 +11004,10 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n">
-        <v>2019</v>
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -10123,7 +11021,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>cryptocurrency wallet,bitcoin wallet forensics,bitcoin wallet security,cryptocurrency,multibit hd,electrum,bitcoins</t>
+          <t>bitcoin wallet security,cryptocurrency,electrum,bitcoins,bitcoin wallet forensics,cryptocurrency wallet,multibit hd</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -10131,8 +11029,10 @@
           <t>Future Generation Computer Systems</t>
         </is>
       </c>
-      <c r="F226" t="n">
-        <v>8</v>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -10151,8 +11051,10 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
-        <v>2018</v>
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -10166,7 +11068,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>internet of things,practical application,risk management,contract,financial service,technology</t>
+          <t>risk management,internet of things,contract,financial service,practical application,technology</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -10174,8 +11076,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F227" t="n">
-        <v>2</v>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -10194,8 +11098,10 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
-        <v>2020</v>
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -10209,7 +11115,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>consensus,sybil attack,network</t>
+          <t>network,attack,consensus protocol</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -10217,8 +11123,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F228" t="n">
-        <v>0</v>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -10237,8 +11145,10 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="n">
-        <v>2019</v>
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -10252,7 +11162,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>distributed ledger,ict,bank,cyber attack,financial service,peer-to-peer system,digital transaction,swift,nothing,payment,network</t>
+          <t>attack,swift,network,payment,bank,ict,digital transaction,peer-to-peer system,nothing,financial service</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -10260,8 +11170,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F229" t="n">
-        <v>0</v>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -10280,8 +11192,10 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
-        <v>2017</v>
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -10295,7 +11209,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>decentralize peer-to-peer,contract,cryptocurrency,nothing,technology,public ledger,proof-of-work,bitcoin</t>
+          <t>decentralize peer-to-peer,cryptocurrency,consensus protocol,bitcoin,contract,nothing,public ledger,technology</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -10303,8 +11217,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F230" t="n">
-        <v>2</v>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -10323,8 +11239,10 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
-        <v>2017</v>
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -10338,7 +11256,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>seconomics vulnerability,fintech,decentralize autonomous organization,security protocol</t>
+          <t>decentralize autonomous organization,seconomics vulnerability,security protocol,fintech</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -10346,8 +11264,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F231" t="n">
-        <v>5</v>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -10366,8 +11286,10 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="n">
-        <v>2019</v>
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -10381,7 +11303,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>ethereum,nothing,contract</t>
+          <t>ethereum,contract,nothing</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -10389,8 +11311,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F232" t="n">
-        <v>0</v>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -10410,8 +11334,10 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
-        <v>2020</v>
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -10425,7 +11351,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>internet of things,nothing,cyber physical system,contract</t>
+          <t>internet of things,cyber physical system,contract,nothing</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -10433,8 +11359,10 @@
           <t>Springer, Singapore</t>
         </is>
       </c>
-      <c r="F233" t="n">
-        <v>0</v>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -10453,8 +11381,10 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
-        <v>2019</v>
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -10468,7 +11398,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>reason,risk engineer,integrate risk analysis,nothing,ontology</t>
+          <t>integrate risk analysis,nothing,ontology,reason,risk engineer</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10476,8 +11406,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F234" t="n">
-        <v>0</v>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -10498,8 +11430,10 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n">
-        <v>2019</v>
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -10513,7 +11447,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>nothing,contract,vulnerability detection</t>
+          <t>vulnerability detection,contract,nothing</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -10521,8 +11455,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F235" t="n">
-        <v>0</v>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -10541,8 +11477,10 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
-        <v>2019</v>
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -10564,8 +11502,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F236" t="n">
-        <v>1</v>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -10584,8 +11524,10 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
-        <v>2018</v>
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -10599,7 +11541,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>om oracle,nothing,delay,bitcoin</t>
+          <t>delay,nothing,om oracle,bitcoin</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -10607,8 +11549,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F237" t="n">
-        <v>3</v>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -10627,8 +11571,10 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="n">
-        <v>2020</v>
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -10642,7 +11588,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>botnets,nothing,c&amp;c,bitcoin</t>
+          <t>bitcoin,botnets,c&amp;c,nothing</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -10650,8 +11596,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F238" t="n">
-        <v>1</v>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -10670,8 +11618,10 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="n">
-        <v>2019</v>
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -10685,7 +11635,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>nothing,monitor system</t>
+          <t>monitor system,nothing</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -10693,8 +11643,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F239" t="n">
-        <v>0</v>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -10713,8 +11665,10 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="n">
-        <v>2019</v>
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -10728,7 +11682,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>nothing,hyperledger fabric,attack,mitigation</t>
+          <t>hyperledger fabric,mitigation,attack,nothing</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -10736,8 +11690,10 @@
           <t>Springer, Singapore</t>
         </is>
       </c>
-      <c r="F240" t="n">
-        <v>0</v>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -10758,8 +11714,10 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="n">
-        <v>2019</v>
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -10773,7 +11731,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>defensive protocol,p2p network,bitcoin</t>
+          <t>p2p network,defensive protocol,bitcoin</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -10781,8 +11739,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F241" t="n">
-        <v>0</v>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -10801,8 +11761,10 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="n">
-        <v>2020</v>
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -10816,7 +11778,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>hash function,pay-to-public-key-hash  protocol,nothing,trojan message attack,bitcoin</t>
+          <t>bitcoin,nothing,pay-to-public-key-hash  protocol,cryptography,trojan message attack</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -10824,8 +11786,10 @@
           <t>Springer, Singapore</t>
         </is>
       </c>
-      <c r="F242" t="n">
-        <v>0</v>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -10844,8 +11808,10 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="n">
-        <v>2019</v>
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -10859,7 +11825,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>lattice,ecdsa,crypto,hide number problem,bitcoin</t>
+          <t>lattice,hide number problem,ecdsa,bitcoin,crypto</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -10867,8 +11833,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F243" t="n">
-        <v>6</v>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -10887,8 +11855,10 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="n">
-        <v>2018</v>
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -10902,7 +11872,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>cryptocurrency,firstcoin,nothing,51% attack,proof-of-work,double spend attack</t>
+          <t>attack,cryptocurrency,firstcoin,nothing,consensus protocol</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -10910,8 +11880,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F244" t="n">
-        <v>0</v>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -10930,8 +11902,10 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="n">
-        <v>2020</v>
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -10945,7 +11919,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>collusion,nothing,banzhaf index,offline channel</t>
+          <t>banzhaf index,offline channel,collusion,nothing</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -10953,8 +11927,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F245" t="n">
-        <v>0</v>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -10973,8 +11949,10 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="n">
-        <v>2017</v>
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -10988,7 +11966,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>subchain,metal node,honest miner,contract,nothing</t>
+          <t>subchain,honest miner,metal node,contract,nothing</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -10996,8 +11974,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F246" t="n">
-        <v>4</v>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -11016,8 +11996,10 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="n">
-        <v>2018</v>
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -11031,7 +12013,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>ethereum,design pattern,automatic code generation,contract,solidity,nothing,finite state machine</t>
+          <t>solidity,design pattern,finite state machine,contract,nothing,ethereum,automatic code generation</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -11039,8 +12021,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F247" t="n">
-        <v>16</v>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -11059,8 +12043,10 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
-        <v>2016</v>
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -11074,7 +12060,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>amazon web service,cryptocurrency exchange,cloud storage</t>
+          <t>cryptocurrency exchange,amazon web service,cloud storage</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -11082,8 +12068,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F248" t="n">
-        <v>0</v>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -11102,8 +12090,10 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
-        <v>2016</v>
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -11117,7 +12107,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>distribute immutabilization,secure log,nothing,integrity,trust</t>
+          <t>integrity,trust,distribute immutabilization,nothing,secure log</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -11125,8 +12115,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F249" t="n">
-        <v>14</v>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -11145,8 +12137,10 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="n">
-        <v>2020</v>
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -11160,7 +12154,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>ethereum,selfish mine,dyck path,om walk,nothing,proof-of-work,catalan number,bitcoin</t>
+          <t>mine,consensus protocol,bitcoin,catalan number,nothing,dyck path,ethereum,om walk</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -11168,8 +12162,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F250" t="n">
-        <v>0</v>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -11188,8 +12184,10 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="n">
-        <v>2016</v>
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -11203,7 +12201,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>client puzzle,distribute computation,denial of service resistance,proof-of-work,bitcoin</t>
+          <t>denial of service resistance,bitcoin,consensus protocol,client puzzle,distribute computation</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -11211,8 +12209,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F251" t="n">
-        <v>4</v>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -11231,8 +12231,10 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="n">
-        <v>2019</v>
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -11246,7 +12248,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>merkle tree,efficient storage,nothing,consensus validation,gpu process,high performance compute</t>
+          <t>efficient storage,merkle tree,high performance compute,nothing,gpu process,consensus validation</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -11254,8 +12256,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F252" t="n">
-        <v>1</v>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -11274,8 +12278,10 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="n">
-        <v>2020</v>
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -11289,7 +12295,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>threshold cryptography,cryptocurrency,information security,privacy,nothing,bitcoin</t>
+          <t>privacy,cryptocurrency,threshold cryptography,bitcoin,nothing</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -11297,8 +12303,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F253" t="n">
-        <v>0</v>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -11317,8 +12325,10 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="n">
-        <v>2017</v>
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -11332,7 +12342,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>selfish mine,incentive compatibility,bitcoin</t>
+          <t>incentive compatibility,mine,bitcoin</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -11340,8 +12350,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F254" t="n">
-        <v>19</v>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -11360,8 +12372,10 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="n">
-        <v>2020</v>
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -11375,7 +12389,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>solidity,nothing,contract,reentrant attack</t>
+          <t>solidity,contract,reentrant attack,nothing</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -11383,8 +12397,10 @@
           <t>Springer, Singapore</t>
         </is>
       </c>
-      <c r="F255" t="n">
-        <v>0</v>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -11405,8 +12421,10 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="n">
-        <v>2018</v>
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -11420,7 +12438,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>proof-of-work,compromise hash,nothing,softfork transition scheme</t>
+          <t>consensus protocol,softfork transition scheme,compromise hash,nothing</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -11428,8 +12446,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F256" t="n">
-        <v>2</v>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -11448,8 +12468,10 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="n">
-        <v>2017</v>
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -11463,7 +12485,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>evaluation mechanism,scalability,rscoin,cryptocurrency</t>
+          <t>rscoin,cryptocurrency,scalability,evaluation mechanism</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -11471,8 +12493,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F257" t="n">
-        <v>2</v>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -11491,8 +12515,10 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="n">
-        <v>2020</v>
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -11506,7 +12532,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>correlate equilibrium,block synchronization,game theory,large deviation theory</t>
+          <t>large deviation theory,block synchronization,game theory,correlate equilibrium</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -11514,8 +12540,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F258" t="n">
-        <v>0</v>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -11534,8 +12562,10 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="n">
-        <v>2019</v>
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -11549,7 +12579,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>data protection,nothing,decentralization</t>
+          <t>data protection,decentralization,nothing</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -11557,8 +12587,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F259" t="n">
-        <v>0</v>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -11577,8 +12609,10 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="n">
-        <v>2018</v>
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -11600,8 +12634,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F260" t="n">
-        <v>2</v>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -11620,8 +12656,10 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
-        <v>2014</v>
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -11635,7 +12673,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>trend in bitcoin security breach,bitcoin security countermeasure,bitcoin</t>
+          <t>bitcoin security countermeasure,trend in bitcoin security breach,bitcoin</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -11643,8 +12681,10 @@
           <t>978-3-319-09146-4</t>
         </is>
       </c>
-      <c r="F261" t="n">
-        <v>8</v>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -11663,8 +12703,10 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n">
-        <v>2019</v>
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -11678,7 +12720,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>fork attack,verification,light node,challenge mechanism,binary tree</t>
+          <t>challenge mechanism,fork attack,light node,binary tree,formal approach</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -11686,8 +12728,10 @@
           <t>Springer, Singapore</t>
         </is>
       </c>
-      <c r="F262" t="n">
-        <v>0</v>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -11707,8 +12751,10 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="n">
-        <v>2017</v>
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -11722,7 +12768,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>invalid ticket,contract,hyperledger fabric,concert organizer,ticket owner</t>
+          <t>ticket owner,hyperledger fabric,invalid ticket,concert organizer,contract</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -11730,8 +12776,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F263" t="n">
-        <v>3</v>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -11750,8 +12798,10 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="n">
-        <v>2019</v>
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -11765,7 +12815,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>security detection model,selfish mine,51% attack,nothing,contrast of attack</t>
+          <t>security detection model,attack,mine,contrast of attack,nothing</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -11773,8 +12823,10 @@
           <t>Springer, Singapore</t>
         </is>
       </c>
-      <c r="F264" t="n">
-        <v>0</v>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -11794,8 +12846,10 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="n">
-        <v>2020</v>
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -11809,7 +12863,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>distributed ledger,nothing,update</t>
+          <t>update,nothing</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -11817,8 +12871,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F265" t="n">
-        <v>0</v>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -11837,8 +12893,10 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="n">
-        <v>2014</v>
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -11860,8 +12918,10 @@
           <t>Springer, Berlin, Heidelberg</t>
         </is>
       </c>
-      <c r="F266" t="n">
-        <v>6</v>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -11880,8 +12940,10 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="n">
-        <v>2019</v>
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -11895,7 +12957,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>nothing,user privacy,decentralize sanitizers,data privacy,access control encryption</t>
+          <t>data privacy,access control encryption,decentralize sanitizers,nothing,user privacy</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -11903,8 +12965,10 @@
           <t>Springer, Singapore</t>
         </is>
       </c>
-      <c r="F267" t="n">
-        <v>0</v>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -11924,8 +12988,10 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="n">
-        <v>2019</v>
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -11939,7 +13005,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>privacy,nothing,discretionary access control</t>
+          <t>privacy,discretionary access control,nothing</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -11947,8 +13013,10 @@
           <t>Springer, Singapore</t>
         </is>
       </c>
-      <c r="F268" t="n">
-        <v>0</v>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -11967,8 +13035,10 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="n">
-        <v>2020</v>
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -11982,7 +13052,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>modifier issue,ethereum,gas limit a a kill criterion,vulnerability injection,contract,solidity,mutation test</t>
+          <t>vulnerability injection,solidity,modifier issue,gas limit a a kill criterion,mutation test,contract,ethereum</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -11990,8 +13060,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F269" t="n">
-        <v>0</v>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -12012,8 +13084,10 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="n">
-        <v>2018</v>
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -12027,7 +13101,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>human cognition,cybercrime,cyber attack,nothing,wannacry ransomware,cyberintrusions</t>
+          <t>human cognition,attack,cybercrime,wannacry ransomware,nothing,cyberintrusions</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -12035,8 +13109,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F270" t="n">
-        <v>3</v>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -12055,8 +13131,10 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="n">
-        <v>2019</v>
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -12070,7 +13148,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>dishonest majority,offline player,nothing,sleepy model,bitcoin</t>
+          <t>sleepy model,dishonest majority,bitcoin,nothing,offline player</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -12078,8 +13156,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F271" t="n">
-        <v>2</v>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -12098,8 +13178,10 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="n">
-        <v>2019</v>
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -12113,7 +13195,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>learn with error,lattice,bitcoin,elliptic curve</t>
+          <t>lattice,learn with error,elliptic curve,bitcoin</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -12121,8 +13203,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F272" t="n">
-        <v>1</v>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -12141,8 +13225,10 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="n">
-        <v>2020</v>
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -12156,7 +13242,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>scalability,responsiveness,nothing,multi-signature aggregation,byzantine fault tolerance</t>
+          <t>responsiveness,scalability,nothing,byzantine fault tolerance,cryptography</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -12164,8 +13250,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F273" t="n">
-        <v>0</v>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -12184,8 +13272,10 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="n">
-        <v>2019</v>
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -12199,7 +13289,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>nothing,game theory,mining pool,ddos</t>
+          <t>game theory,mine,ddos,nothing</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -12207,8 +13297,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F274" t="n">
-        <v>0</v>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -12227,8 +13319,10 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="n">
-        <v>2019</v>
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -12242,7 +13336,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>selfish mine,proof-of-work,nothing,cryptocurrency</t>
+          <t>mine,cryptocurrency,consensus protocol,nothing</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -12250,8 +13344,10 @@
           <t>Springer, Cham</t>
         </is>
       </c>
-      <c r="F275" t="n">
-        <v>1</v>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -12271,8 +13367,10 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="n">
-        <v>2019</v>
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -12286,7 +13384,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>cryptocurrency,nothing,graph analysis,intraday financial risk,garch</t>
+          <t>intraday financial risk,garch,cryptocurrency,nothing,graph analysis</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -12296,8 +13394,10 @@
 volume 1</t>
         </is>
       </c>
-      <c r="F276" t="n">
-        <v>2</v>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>

--- a/src/output/3-filter/manual/all-nf.xlsx
+++ b/src/output/3-filter/manual/all-nf.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>privacy,operate system security,nothing</t>
+          <t>nothing,privacy,operate system security</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>digital cash,electronic commerce,apply compute</t>
+          <t>electronic commerce,apply compute,digital cash</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>extra-functional property,compute platform,software performance,privacy,it engineer,information system application,software organization,property,nothing,information system</t>
+          <t>software performance,privacy,nothing,property,extra-functional property,compute platform,software organization,information system application,information system,it engineer</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>privacy,nothing</t>
+          <t>nothing,privacy</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ethereum,overflow vulnerability,taint analysis,contract</t>
+          <t>overflow vulnerability,contract,ethereum,taint analysis</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>privacy,nothing</t>
+          <t>nothing,privacy</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>network simulation,privacy,network,network performance evaluation,nothing</t>
+          <t>network performance evaluation,network,privacy,nothing,network simulation</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>privacy,database,storage security,nothing</t>
+          <t>nothing,database,storage security,privacy</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>wide,privacy,web mine,web,malware mitigation,web application security,nothing,intrusion/anomaly detection,world,information system</t>
+          <t>malware mitigation,world,wide,privacy,web,nothing,web mine,web application security,information system,intrusion/anomaly detection</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>privacy,nothing</t>
+          <t>nothing,privacy</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>privacy,nothing</t>
+          <t>nothing,privacy</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>social,apply compute,privacy,online bank,professional topic,compute,secure online transaction,nothing,privacy policy,electronic fund transfer,technology policy,domain-specific security and privacy architecture,electronic commerce</t>
+          <t>privacy policy,compute,privacy,social,secure online transaction,professional topic,nothing,apply compute,electronic fund transfer,domain-specific security and privacy architecture,technology policy,electronic commerce,online bank</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>privacy,authentication,security service,nothing,multi-factor authentication</t>
+          <t>privacy,nothing,authentication,multi-factor authentication,security service</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>program,program language usability,nothing</t>
+          <t>nothing,program language usability,program</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>tool,privacy,software library,it engineer,repository,nothing,software notation</t>
+          <t>software notation,software library,privacy,tool,nothing,repository,it engineer</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>privacy,professional topic,compute,privacy policy,nothing,technology policy,social</t>
+          <t>privacy policy,compute,professional topic,privacy,social,nothing,technology policy</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>software verification,software defect analysis,privacy,it engineer,management,software test,validation,debug,nothing,software creation</t>
+          <t>privacy,management,software verification,nothing,debug,software creation,software defect analysis,software test,validation,it engineer</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>security protocol,privacy,network,nothing,network architecture</t>
+          <t>network,privacy,nothing,security protocol,network architecture</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>privacy,domain-specific security and privacy architecture,nothing</t>
+          <t>nothing,domain-specific security and privacy architecture,privacy</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>privacy,nothing</t>
+          <t>nothing,privacy</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>distribute architecture,network,denial-of-service attack,nothing,peer-to-peer architecture,computer system organization</t>
+          <t>network,nothing,peer-to-peer architecture,denial-of-service attack,distribute architecture,computer system organization</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>time-based model,attacker advantage,mathematical model,bitcoin,double-spend attack</t>
+          <t>double-spend attack,bitcoin,mathematical model,attacker advantage,time-based model</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>privacy,message authentication code,symmetric cryptography,nothing,cryptography</t>
+          <t>cryptography,privacy,nothing,symmetric cryptography,message authentication code</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>privacy,operate system security,nothing</t>
+          <t>nothing,privacy,operate system security</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>distribute denial-of-service ,cooperative defense,nothing</t>
+          <t xml:space="preserve">cooperative defense,nothing,distribute denial-of-service </t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>privacy,network,statistic,network protocol,mathematics of compute,nothing,probability,cryptography</t>
+          <t>cryptography,probability,network,privacy,nothing,network protocol,mathematics of compute,statistic</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>privacy,nothing</t>
+          <t>nothing,privacy</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>privacy,theory of security,nothing,logic,formal approach,security in hardware</t>
+          <t>privacy,nothing,formal approach,theory of security,security in hardware,logic</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>distribute architecture,network,network reliability,nothing,peer-to-peer architecture,computer system organization</t>
+          <t>network,nothing,peer-to-peer architecture,network reliability,distribute architecture,computer system organization</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>security protocol,privacy,distribute architecture,network,wireless security,security service,nothing,peer-to-peer architecture,computer system organization,mobile,privacy-preserving protocol</t>
+          <t>network,privacy,wireless security,nothing,peer-to-peer architecture,security protocol,mobile,security service,distribute architecture,privacy-preserving protocol,computer system organization</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>digital cash,apply compute,privacy,nothing,electronic commerce</t>
+          <t>privacy,nothing,apply compute,digital cash,electronic commerce</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>privacy,nothing</t>
+          <t>nothing,privacy</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>privacy,cryptography,key management,nothing</t>
+          <t>cryptography,nothing,key management,privacy</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>privacy,network,nothing</t>
+          <t>nothing,network,privacy</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>document type,privacy,general conference proceed,nothing,general,reference</t>
+          <t>document type,privacy,nothing,reference,general conference proceed,general</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>database,privacy,query of encrypt data,management,storage security,nothing</t>
+          <t>database,storage security,privacy,management,nothing,query of encrypt data</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>privacy,authorization,security service,nothing</t>
+          <t>authorization,nothing,security service,privacy</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>privacy,theory of security,nothing,logic,formal approach</t>
+          <t>privacy,nothing,formal approach,theory of security,logic</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>privacy,domain-specific security and privacy architecture,nothing</t>
+          <t>nothing,domain-specific security and privacy architecture,privacy</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>privacy,nothing</t>
+          <t>nothing,privacy</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>page strategy,record storage system,information storage system,block,information system</t>
+          <t>page strategy,information storage system,record storage system,block,information system</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>domain specific language,formal approach,security evaluation,nothing</t>
+          <t>nothing,domain specific language,formal approach,security evaluation</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>privacy,professional topic,compute,privacy policy,nothing,technology policy,social</t>
+          <t>privacy policy,compute,professional topic,privacy,social,nothing,technology policy</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>privacy,message authentication code,symmetric cryptography,nothing,cryptography</t>
+          <t>cryptography,privacy,nothing,symmetric cryptography,message authentication code</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>privacy,nothing</t>
+          <t>nothing,privacy</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>privacy,database,storage security,nothing</t>
+          <t>nothing,database,storage security,privacy</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>privacy,network,network reliability,nothing</t>
+          <t>network reliability,nothing,network,privacy</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>unsupervised learn,anomaly detection,privacy,supervise learn,compute methodology,nothing,learn paradigm,machine learning</t>
+          <t>privacy,unsupervised learn,nothing,compute methodology,machine learning,learn paradigm,supervise learn,anomaly detection</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>network,denial-of-service attack,nothing</t>
+          <t>nothing,denial-of-service attack,network</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>anonymity,theory of computation,cryptographic protocol,privacy,untraceability,nothing,security service,cryptography,privacy-preserving protocol,pseudonymity,computational complexity</t>
+          <t>theory of computation,cryptography,privacy,pseudonymity,nothing,computational complexity,anonymity,security service,cryptographic protocol,privacy-preserving protocol,untraceability</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>hyperledger fabric,post-quantum cryptography,nothing</t>
+          <t>nothing,hyperledger fabric,post-quantum cryptography</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>privacy,nothing,internet of things,contract,consensus protocol</t>
+          <t>privacy,nothing,contract,consensus protocol,internet of things</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>general-purpose model,isolation,software bug,fault tolerance,autonomous robot,fault detection,internet of things,distribute compute,nothing,interaction,edge compute,computation</t>
+          <t>general-purpose model,edge compute,nothing,fault tolerance,distribute compute,computation,software bug,interaction,internet of things,isolation,fault detection,autonomous robot</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>stateless protocol,genesis,bitcoin,digital linear tape,byzantine fault tolerance</t>
+          <t>stateless protocol,bitcoin,digital linear tape,byzantine fault tolerance,genesis</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>transfer function,program language,solidity,b-method,contract,first-order logic,immutable object,domain-specific language,nothing,principle of abstraction,first-order predicate,rodin tool,refinement ,validation,formal approach,type system,simulation,automate theorem prove,honeypot ,ethereum</t>
+          <t>first-order logic,domain-specific language,refinement ,simulation,type system,validation,principle of abstraction,contract,first-order predicate,program language,transfer function,solidity,automate theorem prove,nothing,ethereum,rodin tool,honeypot ,immutable object,formal approach,b-method</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3362,7 +3362,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>immutable object,jot,sample ,malware,markov chain,double-spending,cryptocurrency,numerical analysis,iota,selection algorithm,adversary ,direct acyclic graph</t>
+          <t>adversary ,markov chain,double-spending,numerical analysis,cryptocurrency,sample ,direct acyclic graph,jot,malware,immutable object,selection algorithm,iota</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>throughput,commitment scheme,scalability,malware,amortize analysis,overhead ,shard ,recovery procedure,computation</t>
+          <t>throughput,shard ,scalability,malware,amortize analysis,overhead ,computation,commitment scheme,recovery procedure</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>holographic principle,contract,information sensitivity,personally identifiable information,scalability,privacy,business logic,business process,entity,naruto shippuden: clash of ninja revolution 3,nothing,interaction,computation,enterprise system,confidentiality,enterprise integration,data integrity,spectral leakage,encryption</t>
+          <t>confidentiality,data integrity,enterprise system,interaction,scalability,information sensitivity,enterprise integration,holographic principle,naruto shippuden: clash of ninja revolution 3,business process,contract,privacy,nothing,computation,personally identifiable information,spectral leakage,encryption,business logic,entity</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>authorization,cryptographic hash function,network,tamper resistance,bitcoin,trust third party,differential privacy,pervasive informatics</t>
+          <t>cryptographic hash function,network,bitcoin,trust third party,differential privacy,tamper resistance,authorization,pervasive informatics</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>database,computer,quantum entanglement,quantum algorithm,temporal logic,bitcoin,nothing,quantum compute,quantum information,ethereum,centralize compute</t>
+          <t>quantum entanglement,computer,database,temporal logic,quantum algorithm,nothing,bitcoin,quantum compute,ethereum,quantum information,centralize compute</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>value ,attack,social network,network,byzantine fault tolerance,proof-of-work system,web of trust</t>
+          <t>web of trust,attack,network,value ,byzantine fault tolerance,social network,proof-of-work system</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>immutable object,jot,procedural generation,simulation,mathematics,markov chain monte carlo,iota,selection algorithm,direct acyclic graph</t>
+          <t>procedural generation,jot,direct acyclic graph,mathematics,markov chain monte carlo,simulation,immutable object,selection algorithm,iota</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>database,brute-force search,contract agreement,cryptocurrency,brute-force attack,bitcoin,antivirus software,marijuana abuse,contract,protocol documentation,cryptography</t>
+          <t>cryptography,database,contract agreement,cryptocurrency,bitcoin,marijuana abuse,antivirus software,contract,protocol documentation,brute-force attack,brute-force search</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>global network,essence,bitcoin,distribute compute,nothing</t>
+          <t>nothing,bitcoin,essence,distribute compute,global network</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>distribute transaction,cryptocurrency,bitcoin,internet of things,nothing,computation</t>
+          <t>cryptocurrency,bitcoin,nothing,distribute transaction,computation,internet of things</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>key derivation function,public-key cryptography,authorization,privacy,cryptonote,antivirus software,nothing,stealth,cryptography</t>
+          <t>cryptography,privacy,nothing,antivirus software,public-key cryptography,authorization,key derivation function,stealth,cryptonote</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>lock ,business logic,computer data storage,computer performance,bitcoin,virtual machine,software portability,traction teampage,distribute compute,contract,nothing,ethereum,formal approach</t>
+          <t>software portability,lock ,traction teampage,nothing,bitcoin,ethereum,contract,formal approach,distribute compute,business logic,virtual machine,computer performance,computer data storage</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>asynchrony ,double-spending,shard ,replay attack</t>
+          <t>shard ,double-spending,asynchrony ,replay attack</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>sensor,public-key cryptography,population,bitcoin,internet of things,nothing,omness,home automation,machine learning</t>
+          <t>population,sensor,bitcoin,nothing,machine learning,omness,public-key cryptography,internet of things,home automation</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>rsa ,modulus robot,modulus of continuity,cryptography</t>
+          <t>rsa ,modulus robot,cryptography,modulus of continuity</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>sensor,real-time clock,smart device,bitcoin,immutable object,ephrin type-b receptor 1,health fraud,cryptocurrency,entity,smartphone,program paradigm,tablet computer,exploit ,time complexity,e-commerce,human,smart city,exponential,tablet dosage form,solution,botnet,synergy,internet of things,certification</t>
+          <t>tablet dosage form,solution,cryptocurrency,e-commerce,smartphone,tablet computer,smart device,synergy,program paradigm,sensor,bitcoin,time complexity,human,real-time clock,internet of things,botnet,exploit ,ephrin type-b receptor 1,smart city,health fraud,immutable object,certification,entity,exponential</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>immutable object,computer data storage,cryptocurrency,bitcoin,encryption,shamir's secret share,cryptography,zero-knowledge proof,identifier</t>
+          <t>cryptography,zero-knowledge proof,cryptocurrency,bitcoin,shamir's secret share,encryption,immutable object,computer data storage,identifier</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>mortar method,unintended consequence,moral hazard,contract,programmer</t>
+          <t>mortar method,unintended consequence,contract,moral hazard,programmer</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4210,7 +4210,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>double-spending,cryptocurrency,bitcoin,node ,nothing,computational resource</t>
+          <t xml:space="preserve">double-spending,computational resource,nothing,bitcoin,cryptocurrency,node </t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>privacy,dust attack,cryptocurrency,bitcoin,nothing,threat</t>
+          <t>privacy,nothing,bitcoin,cryptocurrency,threat,dust attack</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>bitcoin,eclipse attack,countermeasure,peer-to-peer network,security analysis,block propagation</t>
+          <t>peer-to-peer network,eclipse attack,countermeasure,bitcoin,security analysis,block propagation</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>decentralize payment system,p2p transaction,digital wallet,cryptocurrency,digital money,bitcoin,bitcoin security,bitcoin cyberattacks,nothing</t>
+          <t>p2p transaction,bitcoin cyberattacks,cryptocurrency,bitcoin,nothing,bitcoin security,digital wallet,digital money,decentralize payment system</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>bitcoin,internet of things,distribute system,nothing</t>
+          <t>nothing,bitcoin,internet of things,distribute system</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>anomaly detection,nothing,machine learn ,bitcoin</t>
+          <t xml:space="preserve">nothing,bitcoin,anomaly detection,machine learn </t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>conflict check protocol,attack,arbitration mechanism,conflict,bitcoin,nothing</t>
+          <t>attack,conflict,nothing,bitcoin,arbitration mechanism,conflict check protocol</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>mine process,anonymity,decentralize,attack,bitcoin,miner,consensus protocol,block withhold</t>
+          <t>decentralize,attack,bitcoin,anonymity,miner,consensus protocol,block withhold,mine process</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4586,7 +4586,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>attack,cryptocurrency exchange,bitcoin,cyber threat intelligence,nothing</t>
+          <t>cryptocurrency exchange,attack,nothing,bitcoin,cyber threat intelligence</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>mine,attack,nothing</t>
+          <t>mine,nothing,attack</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>light ethereum subprotocol,ethereum,light client,nothing</t>
+          <t>light ethereum subprotocol,nothing,ethereum,light client</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4727,7 +4727,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>mine,attack,nothing</t>
+          <t>mine,nothing,attack</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>hyper- ledger,attack,bitcoin,nothing,ethereum</t>
+          <t>attack,hyper- ledger,nothing,bitcoin,ethereum</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>governance,nothing,software defect,hack,consensus protocol,cryptography,proof-of-stake</t>
+          <t>cryptography,governance,software defect,nothing,proof-of-stake,consensus protocol,hack</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>blochchain,nothing,bitcoin</t>
+          <t>nothing,bitcoin,blochchain</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4915,7 +4915,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>eclipse attack,nothing,network,bitcoin</t>
+          <t>nothing,bitcoin,eclipse attack,network</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>attack surface,air gap storage,air gap wallet,key extraction,markov model,nothing,channel exfiltration,private key storage</t>
+          <t>attack surface,markov model,key extraction,air gap storage,nothing,private key storage,channel exfiltration,air gap wallet</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5009,7 +5009,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>majority attack,nothing,proof of work ,bitcoin</t>
+          <t xml:space="preserve">nothing,bitcoin,majority attack,proof of work </t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5056,7 +5056,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>bitcoin,dust attack,anti-dust,nothing</t>
+          <t>anti-dust,nothing,bitcoin,dust attack</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>majority attack,network,anomaly detection,computer security,nothing,algorithmic game theory,machine learning</t>
+          <t>network,nothing,machine learning,computer security,algorithmic game theory,anomaly detection,majority attack</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>defence,vulnerability analysis,nothing,ethereum,geth</t>
+          <t>nothing,defence,ethereum,geth,vulnerability analysis</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>double-spending,attack,bitcoin</t>
+          <t>attack,bitcoin,double-spending</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5244,7 +5244,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>bitcoin,risk,contract,nothing,ethereum,threat</t>
+          <t>risk,nothing,bitcoin,ethereum,threat,contract</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>nothing,countermeasure,objectionable content,bitcoin</t>
+          <t>countermeasure,nothing,bitcoin,objectionable content</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>nothing,database security,threat,bitcoin</t>
+          <t>bitcoin,nothing,database security,threat</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>privacy,hybrid,auction,nothing</t>
+          <t>nothing,auction,hybrid,privacy</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5432,7 +5432,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>decentralization,network,cryptocurrency,bitcoin,internet of things,contract,nothing,survey</t>
+          <t>network,nothing,cryptocurrency,bitcoin,survey,contract,decentralization,internet of things</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>trust,nothing</t>
+          <t>nothing,trust</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5526,7 +5526,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>security practice,ibc,tendermint,nothing</t>
+          <t>tendermint,nothing,ibc,security practice</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5573,7 +5573,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>nothing,contract theory,sharding,security deposit</t>
+          <t>sharding,nothing,security deposit,contract theory</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5620,7 +5620,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>distribute trust,internet of things,on-off attack,nothing</t>
+          <t>distribute trust,nothing,internet of things,on-off attack</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>commitment scheme,mine,selfish miner,block withhold attack,bitcoin mine</t>
+          <t>mine,selfish miner,block withhold attack,bitcoin mine,commitment scheme</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>threat,cryptographic protocol,nothing</t>
+          <t>cryptographic protocol,nothing,threat</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>mine,block withhold attack,fork after withhold</t>
+          <t>mine,fork after withhold,block withhold attack</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5808,7 +5808,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>archival science,trust,bitcoin,secure compute,dependability,dependable,nothing</t>
+          <t>dependability,secure compute,nothing,bitcoin,trust,archival science,dependable</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5855,7 +5855,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>storage balance,nothing</t>
+          <t>nothing,storage balance</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5902,7 +5902,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>coin hop attack,pool mine,bitcoin,internet of things,nothing,ethereum</t>
+          <t>pool mine,nothing,bitcoin,ethereum,internet of things,coin hop attack</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5949,7 +5949,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>uncle block,mine,eclipse attack,stubborn mine,ethereum</t>
+          <t>mine,eclipse attack,ethereum,stubborn mine,uncle block</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5996,7 +5996,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>proof of authority,privacy,internet of thing ,nothing,ethereum</t>
+          <t>internet of thing ,privacy,nothing,ethereum,proof of authority</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>threat categorization,threat,nothing</t>
+          <t>threat categorization,nothing,threat</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6090,7 +6090,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>privacy,transaction system,nothing</t>
+          <t>transaction system,nothing,privacy</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>attack,delay attack,byzantine general problem,nothing,cryptography,partition</t>
+          <t>cryptography,attack,nothing,byzantine general problem,delay attack,partition</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>risk,e-voting system,nothing</t>
+          <t>nothing,e-voting system,risk</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>ethereum,man in the middle,nothing</t>
+          <t>man in the middle,nothing,ethereum</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6278,7 +6278,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>ethereum,overflow vulnerability,taint analysis,contract</t>
+          <t>overflow vulnerability,contract,ethereum,taint analysis</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6325,7 +6325,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>security vulnerability,atomicity violation,fuzzer,gas consumption,software test,vulnerability trigger,fuzzing,contract,nothing,ethereum</t>
+          <t>nothing,vulnerability trigger,ethereum,fuzzing,gas consumption,security vulnerability,atomicity violation,contract,software test,fuzzer</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t xml:space="preserve">mine,bitcoin,block withhold attack,economics of mine,nothing,proof of work </t>
+          <t>mine,nothing,bitcoin,economics of mine,proof of work ,block withhold attack</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6419,7 +6419,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>internet of things,nothing</t>
+          <t>nothing,internet of things</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -6466,7 +6466,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>bitcoin,security analysis,mine,nothing</t>
+          <t>security analysis,mine,nothing,bitcoin</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -6513,7 +6513,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>zksnarks,privacy,reward mechanism,blockchain.,bitcoin,incentive,nothing,data report,crowd-sensing,participatory sense</t>
+          <t>data report,privacy,nothing,bitcoin,blockchain.,crowd-sensing,participatory sense,reward mechanism,zksnarks,incentive</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>behavior monitor,digital transaction,attack,nothing</t>
+          <t>behavior monitor,nothing,digital transaction,attack</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -6607,7 +6607,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>membership service provider,cryptographic attack,nothing</t>
+          <t>cryptographic attack,nothing,membership service provider</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -6654,7 +6654,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>decentralization,mine,reward,nothing,gap game</t>
+          <t>mine,nothing,gap game,decentralization,reward</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>immutability attack,attack,nothing</t>
+          <t>immutability attack,nothing,attack</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>blockmesh,compromise of the protocol,nothing</t>
+          <t>nothing,compromise of the protocol,blockmesh</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6795,7 +6795,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>privacy,nothing</t>
+          <t>nothing,privacy</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>adaptive-security,privacy,distributed-ledger,nothing,universal-composability,proof-of-stake,zero-knowledge proof</t>
+          <t>adaptive-security,universal-composability,privacy,distributed-ledger,zero-knowledge proof,nothing,proof-of-stake</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>trust,nothing</t>
+          <t>nothing,trust</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>intrusion detection,goldfinger attack,internet of things,statistical significance,nothing</t>
+          <t>nothing,intrusion detection,goldfinger attack,statistical significance,internet of things</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6983,7 +6983,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>network model,consensus security,nothing</t>
+          <t>nothing,consensus security,network model</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7030,7 +7030,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>security framework,nothing,contract,consensus protocol,threat</t>
+          <t>security framework,nothing,threat,contract,consensus protocol</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7077,7 +7077,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>cloud compute,pool mine,data provenance,block mine,nothing,consensus protocol,blockchain security,block withhold</t>
+          <t>block mine,pool mine,nothing,blockchain security,data provenance,consensus protocol,cloud compute,block withhold</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7124,7 +7124,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>tor,anonymity,network,cryptocurrency,bitcoin,nothing</t>
+          <t>network,tor,cryptocurrency,bitcoin,nothing,anonymity</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>security vulnerability,fuzz test,system architecture,contract,nothing,ethereum</t>
+          <t>nothing,ethereum,fuzz test,security vulnerability,contract,system architecture</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7218,7 +7218,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>cyber-physical system,nothing</t>
+          <t>nothing,cyber-physical system</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>risk assessment,threat,nothing</t>
+          <t>risk assessment,nothing,threat</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -7312,7 +7312,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>performance,fork,nothing</t>
+          <t>nothing,fork,performance</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -7359,7 +7359,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>mine pool selection,evolutionary game theory,nothing,block withhold attack,consensus protocol,replicator dynamic</t>
+          <t>nothing,block withhold attack,consensus protocol,evolutionary game theory,replicator dynamic,mine pool selection</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>protocol,trace analysis,triangle attack</t>
+          <t>triangle attack,trace analysis,protocol</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -7453,7 +7453,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>trust,nothing</t>
+          <t>nothing,trust</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -7500,7 +7500,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>bitcoin,cryptocurrency,privacy,nothing</t>
+          <t>nothing,bitcoin,privacy,cryptocurrency</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -7547,7 +7547,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>privacy,smart city,mobile healthcare,nothing</t>
+          <t>smart city,nothing,privacy,mobile healthcare</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -7594,7 +7594,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>privacy,industrial internet of thing privacy,industrial internet of thing security,nothing</t>
+          <t>industrial internet of thing security,nothing,industrial internet of thing privacy,privacy</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -7637,7 +7637,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>racs,nothing</t>
+          <t>nothing,racs</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>attack,nothing</t>
+          <t>nothing,attack</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>phishing,social engineer,malware,cryptocurrency,nothing</t>
+          <t>nothing,cryptocurrency,malware,phishing,social engineer</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -7778,7 +7778,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>immutability,logistics,network center operation,battlefield management system ,consensus protocol,nothing,defence application,peer-to-peer network ,contract,supply chain,cryptography</t>
+          <t>peer-to-peer network ,cryptography,nothing,battlefield management system ,network center operation,defence application,logistics,contract,immutability,consensus protocol,supply chain</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -7825,7 +7825,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>formal approach,theorem prove,distribute system,nothing</t>
+          <t>theorem prove,nothing,distribute system,formal approach</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -7872,7 +7872,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>cloud compute,governance,trust,law,nothing,service</t>
+          <t>governance,nothing,trust,service,cloud compute,law</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7919,7 +7919,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>cryptography,polynomial,nothing</t>
+          <t>cryptography,nothing,polynomial</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7966,7 +7966,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>genetic algorithm,sharding,fault tolerant,malicious attack,trust,nothing</t>
+          <t>nothing,fault tolerant,trust,malicious attack,sharding,genetic algorithm</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8013,7 +8013,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>logic risk location,topologicalanalysis,security assurance,contract,nothing</t>
+          <t>topologicalanalysis,nothing,contract,logic risk location,security assurance</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8060,7 +8060,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>insider threat,collaborative intrusion detection,trust management,nothing</t>
+          <t>collaborative intrusion detection,nothing,insider threat,trust management</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8107,7 +8107,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>privacy issue,security solution,consensus protocol,security issue,privacy solution,nothing,technology</t>
+          <t>privacy solution,privacy issue,technology,nothing,security issue,consensus protocol,security solution</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8154,7 +8154,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>wireless security,internet of things,nothing</t>
+          <t>nothing,internet of things,wireless security</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -8201,7 +8201,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>timestamp,decentralize,nothing</t>
+          <t>nothing,decentralize,timestamp</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>security vulnerability,dapp,fuzz test,contract,nothing,ethereum</t>
+          <t>dapp,nothing,ethereum,fuzz test,security vulnerability,contract</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -8295,7 +8295,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>privacy,time-based zero knowledge proof of knowledge,industrial internet of thing,nothing</t>
+          <t>privacy,nothing,time-based zero knowledge proof of knowledge,industrial internet of thing</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -8342,7 +8342,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>scalability,nothing,contract,consensus protocol,test</t>
+          <t>nothing,contract,test,consensus protocol,scalability</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -8389,7 +8389,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>game,nothing</t>
+          <t>nothing,game</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>proof-of-stake,attack,nothing</t>
+          <t>proof-of-stake,nothing,attack</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>energy transaction,network,channel,nothing,microgrid</t>
+          <t>channel,microgrid,network,energy transaction,nothing</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -8530,7 +8530,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>internet of things,nothing</t>
+          <t>nothing,internet of things</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -8577,7 +8577,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>future scope,challenge,nothing</t>
+          <t>nothing,challenge,future scope</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>integrity,security architecture,internal attack,financial system,nothing,maker-checker</t>
+          <t>nothing,integrity,security architecture,maker-checker,internal attack,financial system</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>privacy,internet of things,authentication,nothing</t>
+          <t>nothing,internet of things,authentication,privacy</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -8718,7 +8718,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>program analysis,decompilation,ethereum,nothing</t>
+          <t>program analysis,nothing,decompilation,ethereum</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -8765,7 +8765,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>attack technique,dapp,contract,nothing,ethereum</t>
+          <t>dapp,nothing,ethereum,attack technique,contract</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>carrier sense multiple access/collision avoidance ,network,industrial internet of thing,consensus protocol,double-spending attack,direct acyclic graph</t>
+          <t>double-spending attack,carrier sense multiple access/collision avoidance ,network,direct acyclic graph,industrial internet of thing,consensus protocol</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>cybersecurity vulnerability assessment,criterion rank,nothing,cyber risk mitigation,cybersecurity framework</t>
+          <t>cybersecurity vulnerability assessment,nothing,cybersecurity framework,cyber risk mitigation,criterion rank</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -8906,7 +8906,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>sharding,failure probability,nothing,security analysis,hypergeometric distribution</t>
+          <t>failure probability,nothing,hypergeometric distribution,security analysis,sharding</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>archiecture,data privacy,pki system,nothing,access control list,service</t>
+          <t>nothing,service,archiecture,access control list,data privacy,pki system</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -9000,7 +9000,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>share scheme,cryptocurrency,attack,nothing</t>
+          <t>share scheme,nothing,attack,cryptocurrency</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -9047,7 +9047,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>internet-of-things ,nothing</t>
+          <t xml:space="preserve">nothing,internet-of-things </t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -9094,7 +9094,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>cyberterrorism,cybercrime,cryptocurrency,nothing</t>
+          <t>nothing,cyberterrorism,cybercrime,cryptocurrency</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>fork attack,mtc confirmation mechanism,dynamic difficulty factor,nothing</t>
+          <t>dynamic difficulty factor,nothing,mtc confirmation mechanism,fork attack</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>privacy,internet of things,iot security,nothing</t>
+          <t>nothing,internet of things,privacy,iot security</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -9235,7 +9235,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>adoption,challenge,nothing</t>
+          <t>nothing,challenge,adoption</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -9282,7 +9282,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>control,organisation.,goal,nothing</t>
+          <t>nothing,goal,control,organisation.</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -9329,7 +9329,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>,adaptive,internet of thing ,nothing</t>
+          <t>,nothing,internet of thing ,adaptive</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -9376,7 +9376,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>control,measurement,complexity,nothing</t>
+          <t>nothing,measurement,control,complexity</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -9423,7 +9423,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>privacy,application,information technology,nothing,threat</t>
+          <t>privacy,application,nothing,threat,information technology</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -9470,7 +9470,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>attack,nothing,internet of things,shv-secured hash value,cryptography,block</t>
+          <t>cryptography,attack,shv-secured hash value,nothing,block,internet of things</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -9517,7 +9517,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>risk management,stablecoin,defi,nothing</t>
+          <t>stablecoin,risk management,nothing,defi</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -9564,7 +9564,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>software lifecycle,software engineer,contract,nothing,ethereum</t>
+          <t>software engineer,nothing,ethereum,contract,software lifecycle</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -9611,7 +9611,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>solidity,contract,nothing,static analysis,vulnerability detection</t>
+          <t>solidity,vulnerability detection,nothing,contract,static analysis</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -9658,7 +9658,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>authentication,cryptocurrency,bitcoin,nothing,wallet</t>
+          <t>wallet,nothing,cryptocurrency,bitcoin,authentication</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -9705,7 +9705,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>fuzz test,machine learning,contract,nothing</t>
+          <t>fuzz test,nothing,contract,machine learning</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -9752,7 +9752,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>double-spend attack,mine,consensus protocol,nothing</t>
+          <t>double-spend attack,nothing,consensus protocol,mine</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -9799,7 +9799,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>,replay attack,security exploitation,cryptocurrency,iota,nothing</t>
+          <t>,replay attack,cryptocurrency,nothing,security exploitation,iota</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -9846,7 +9846,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>fuzzer,fuzzing,test oracle,contract,nothing,ethereum</t>
+          <t>test oracle,nothing,ethereum,fuzzing,contract,fuzzer</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -9893,7 +9893,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>solidity,fasle positive,contract,nothing,ethereum</t>
+          <t>solidity,nothing,fasle positive,ethereum,contract</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -9940,7 +9940,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>network,ethereum,eclipse-attack,nothing</t>
+          <t>nothing,eclipse-attack,ethereum,network</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>ethereum,protocol,embed system,internet of things,transaction,nothing,fpga,prototype</t>
+          <t>embed system,nothing,transaction,prototype,ethereum,protocol,internet of things,fpga</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -10034,7 +10034,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>attack,real-time consensus,internet of thing ,byzantine fault-tolerant ,nothing,wireless network</t>
+          <t>internet of thing ,real-time consensus,attack,nothing,byzantine fault-tolerant ,wireless network</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>emerge technology,cyber risk,risk,artificial intelligence,internet of things,nothing</t>
+          <t>emerge technology,artificial intelligence,risk,nothing,cyber risk,internet of things</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -10128,7 +10128,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>bitcoin,attack,consensus protocol,nothing</t>
+          <t>nothing,bitcoin,attack,consensus protocol</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -10175,7 +10175,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>security.,wban,nothing</t>
+          <t>nothing,wban,security.</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -10222,7 +10222,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>attack,network,consensus protocol,nothing,internet of things,contract,cryptography,hash,immutable</t>
+          <t>cryptography,hash,attack,network,nothing,contract,consensus protocol,immutable,internet of things</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -10269,7 +10269,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>openssl,fault attack,invalid curve attack,embed security,singular curve,supersingular curve</t>
+          <t>supersingular curve,openssl,embed security,fault attack,invalid curve attack,singular curve</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -10316,7 +10316,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>blockchain;-privacy,distributed-ledger,nothing,consensus protocol,hardware</t>
+          <t>blockchain;-privacy,distributed-ledger,nothing,hardware,consensus protocol</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -10363,7 +10363,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>privacy,distribute ledger technology ,internet of thing ,nothing</t>
+          <t>nothing,internet of thing ,distribute ledger technology ,privacy</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -10410,7 +10410,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t xml:space="preserve">block chain ,decentralization,peer-to-peer ,cryptocurrency,consensus protocol,nothing,cryptography,smart contract </t>
+          <t xml:space="preserve">cryptography,peer-to-peer ,nothing,cryptocurrency,smart contract ,decentralization,consensus protocol,block chain </t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -10457,7 +10457,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>censorship attack,protocol security,consensus protocol,nothing</t>
+          <t>censorship attack,nothing,protocol security,consensus protocol</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>program analysis,contract,security smell,nothing</t>
+          <t>program analysis,security smell,contract,nothing</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>ethereum,contract,formal approach,nothing</t>
+          <t>nothing,contract,formal approach,ethereum</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -10598,7 +10598,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>attack,interoperable-blockchains,cryptocurrency,game theory,contract,nothing,ethereum</t>
+          <t>game theory,attack,nothing,cryptocurrency,ethereum,interoperable-blockchains,contract</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -10645,7 +10645,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>spectrum sense,nothing,double threshold energy detection,ssdf attack,consensus protocol</t>
+          <t>ssdf attack,spectrum sense,nothing,double threshold energy detection,consensus protocol</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>smartphone application,owasp mobile,cryptocurrency,nothing</t>
+          <t>nothing,cryptocurrency,smartphone application,owasp mobile</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -10739,7 +10739,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>contract,formal approach,nothing</t>
+          <t>nothing,contract,formal approach</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -10786,7 +10786,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>,tangle,attack,trust,hyperledger,consensus protocol,bitcoin,ripple,contract,iota,nothing,hash,cryptography,ethereum,algor,00-01</t>
+          <t>,cryptography,hash,attack,algor,nothing,bitcoin,trust,ethereum,ripple,00-01,hyperledger,contract,consensus protocol,tangle,iota</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -10833,7 +10833,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>decentralization,security.,cryptocurrency,nothing,contract,consensus protocol,digital currency</t>
+          <t>nothing,cryptocurrency,contract,decentralization,security.,consensus protocol,digital currency</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -10880,7 +10880,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>audit log,distribute system,nothing</t>
+          <t>nothing,audit log,distribute system</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -10927,7 +10927,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>protection,input filter,contract,nothing</t>
+          <t>protection,nothing,contract,input filter</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -10974,7 +10974,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>trade-off,credit,user perception,bitcoin,nothing,debit card,usability</t>
+          <t>nothing,bitcoin,trade-off,debit card,credit,user perception,usability</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -11021,7 +11021,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>bitcoin wallet security,cryptocurrency,electrum,bitcoins,bitcoin wallet forensics,cryptocurrency wallet,multibit hd</t>
+          <t>bitcoins,multibit hd,cryptocurrency,electrum,cryptocurrency wallet,bitcoin wallet forensics,bitcoin wallet security</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -11068,7 +11068,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>risk management,internet of things,contract,financial service,practical application,technology</t>
+          <t>technology,risk management,financial service,contract,practical application,internet of things</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -11115,7 +11115,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>network,attack,consensus protocol</t>
+          <t>attack,network,consensus protocol</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -11162,7 +11162,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>attack,swift,network,payment,bank,ict,digital transaction,peer-to-peer system,nothing,financial service</t>
+          <t>attack,network,nothing,payment,digital transaction,financial service,ict,peer-to-peer system,bank,swift</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>decentralize peer-to-peer,cryptocurrency,consensus protocol,bitcoin,contract,nothing,public ledger,technology</t>
+          <t>technology,cryptocurrency,nothing,bitcoin,decentralize peer-to-peer,contract,consensus protocol,public ledger</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -11256,7 +11256,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>decentralize autonomous organization,seconomics vulnerability,security protocol,fintech</t>
+          <t>decentralize autonomous organization,fintech,seconomics vulnerability,security protocol</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -11303,7 +11303,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>ethereum,contract,nothing</t>
+          <t>nothing,contract,ethereum</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -11351,7 +11351,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>internet of things,cyber physical system,contract,nothing</t>
+          <t>cyber physical system,nothing,contract,internet of things</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -11398,7 +11398,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>integrate risk analysis,nothing,ontology,reason,risk engineer</t>
+          <t>reason,integrate risk analysis,ontology,nothing,risk engineer</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>vulnerability detection,contract,nothing</t>
+          <t>vulnerability detection,nothing,contract</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -11494,7 +11494,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>ethereum,propagation delay</t>
+          <t>propagation delay,ethereum</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>delay,nothing,om oracle,bitcoin</t>
+          <t>om oracle,nothing,bitcoin,delay</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -11588,7 +11588,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>bitcoin,botnets,c&amp;c,nothing</t>
+          <t>nothing,bitcoin,botnets,c&amp;c</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -11635,7 +11635,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>monitor system,nothing</t>
+          <t>nothing,monitor system</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -11682,7 +11682,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>hyperledger fabric,mitigation,attack,nothing</t>
+          <t>mitigation,nothing,hyperledger fabric,attack</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -11731,7 +11731,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>p2p network,defensive protocol,bitcoin</t>
+          <t>defensive protocol,bitcoin,p2p network</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -11778,7 +11778,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>bitcoin,nothing,pay-to-public-key-hash  protocol,cryptography,trojan message attack</t>
+          <t>cryptography,nothing,bitcoin,trojan message attack,pay-to-public-key-hash  protocol</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -11825,7 +11825,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>lattice,hide number problem,ecdsa,bitcoin,crypto</t>
+          <t>lattice,ecdsa,bitcoin,crypto,hide number problem</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -11872,7 +11872,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>attack,cryptocurrency,firstcoin,nothing,consensus protocol</t>
+          <t>attack,firstcoin,nothing,cryptocurrency,consensus protocol</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -11919,7 +11919,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>banzhaf index,offline channel,collusion,nothing</t>
+          <t>collusion,nothing,offline channel,banzhaf index</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -11966,7 +11966,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>subchain,honest miner,metal node,contract,nothing</t>
+          <t>subchain,nothing,honest miner,contract,metal node</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -12013,7 +12013,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>solidity,design pattern,finite state machine,contract,nothing,ethereum,automatic code generation</t>
+          <t>solidity,design pattern,nothing,ethereum,finite state machine,contract,automatic code generation</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -12060,7 +12060,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>cryptocurrency exchange,amazon web service,cloud storage</t>
+          <t>amazon web service,cryptocurrency exchange,cloud storage</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -12107,7 +12107,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>integrity,trust,distribute immutabilization,nothing,secure log</t>
+          <t>nothing,integrity,trust,distribute immutabilization,secure log</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -12154,7 +12154,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>mine,consensus protocol,bitcoin,catalan number,nothing,dyck path,ethereum,om walk</t>
+          <t>mine,catalan number,nothing,bitcoin,dyck path,ethereum,om walk,consensus protocol</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -12201,7 +12201,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>denial of service resistance,bitcoin,consensus protocol,client puzzle,distribute computation</t>
+          <t>client puzzle,bitcoin,distribute computation,denial of service resistance,consensus protocol</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>efficient storage,merkle tree,high performance compute,nothing,gpu process,consensus validation</t>
+          <t>high performance compute,nothing,gpu process,merkle tree,consensus validation,efficient storage</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -12295,7 +12295,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>privacy,cryptocurrency,threshold cryptography,bitcoin,nothing</t>
+          <t>privacy,threshold cryptography,nothing,bitcoin,cryptocurrency</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -12342,7 +12342,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>incentive compatibility,mine,bitcoin</t>
+          <t>mine,incentive compatibility,bitcoin</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -12389,7 +12389,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>solidity,contract,reentrant attack,nothing</t>
+          <t>reentrant attack,nothing,contract,solidity</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -12438,7 +12438,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>consensus protocol,softfork transition scheme,compromise hash,nothing</t>
+          <t>nothing,compromise hash,softfork transition scheme,consensus protocol</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -12485,7 +12485,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>rscoin,cryptocurrency,scalability,evaluation mechanism</t>
+          <t>scalability,cryptocurrency,rscoin,evaluation mechanism</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -12532,7 +12532,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>large deviation theory,block synchronization,game theory,correlate equilibrium</t>
+          <t>game theory,correlate equilibrium,large deviation theory,block synchronization</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -12579,7 +12579,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>data protection,decentralization,nothing</t>
+          <t>data protection,nothing,decentralization</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -12673,7 +12673,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>bitcoin security countermeasure,trend in bitcoin security breach,bitcoin</t>
+          <t>trend in bitcoin security breach,bitcoin security countermeasure,bitcoin</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -12720,7 +12720,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>challenge mechanism,fork attack,light node,binary tree,formal approach</t>
+          <t>fork attack,binary tree,light node,formal approach,challenge mechanism</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -12768,7 +12768,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>ticket owner,hyperledger fabric,invalid ticket,concert organizer,contract</t>
+          <t>hyperledger fabric,ticket owner,contract,concert organizer,invalid ticket</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -12815,7 +12815,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>security detection model,attack,mine,contrast of attack,nothing</t>
+          <t>mine,attack,nothing,security detection model,contrast of attack</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -12863,7 +12863,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>update,nothing</t>
+          <t>nothing,update</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -12910,7 +12910,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>privacy,e-cash</t>
+          <t>e-cash,privacy</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -12957,7 +12957,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>data privacy,access control encryption,decentralize sanitizers,nothing,user privacy</t>
+          <t>decentralize sanitizers,nothing,access control encryption,user privacy,data privacy</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -13005,7 +13005,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>privacy,discretionary access control,nothing</t>
+          <t>nothing,discretionary access control,privacy</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -13052,7 +13052,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>vulnerability injection,solidity,modifier issue,gas limit a a kill criterion,mutation test,contract,ethereum</t>
+          <t>solidity,mutation test,ethereum,modifier issue,gas limit a a kill criterion,contract,vulnerability injection</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -13101,7 +13101,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>human cognition,attack,cybercrime,wannacry ransomware,nothing,cyberintrusions</t>
+          <t>wannacry ransomware,cybercrime,human cognition,attack,nothing,cyberintrusions</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -13148,7 +13148,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>sleepy model,dishonest majority,bitcoin,nothing,offline player</t>
+          <t>nothing,bitcoin,dishonest majority,sleepy model,offline player</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -13195,7 +13195,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>lattice,learn with error,elliptic curve,bitcoin</t>
+          <t>elliptic curve,lattice,bitcoin,learn with error</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -13242,7 +13242,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>responsiveness,scalability,nothing,byzantine fault tolerance,cryptography</t>
+          <t>cryptography,nothing,byzantine fault tolerance,scalability,responsiveness</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -13289,7 +13289,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>game theory,mine,ddos,nothing</t>
+          <t>mine,nothing,game theory,ddos</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>mine,cryptocurrency,consensus protocol,nothing</t>
+          <t>mine,nothing,consensus protocol,cryptocurrency</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>intraday financial risk,garch,cryptocurrency,nothing,graph analysis</t>
+          <t>garch,graph analysis,nothing,cryptocurrency,intraday financial risk</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
